--- a/ICV_study.xlsx
+++ b/ICV_study.xlsx
@@ -3130,11 +3130,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr filterMode="1"/>
+  <sheetPr/>
   <dimension ref="A1:T3967"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="40" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="40" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
@@ -3247,7 +3247,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" hidden="1" spans="1:17">
+    <row r="2" spans="1:17">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -3300,7 +3300,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" hidden="1" spans="1:17">
+    <row r="3" spans="1:17">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -3353,7 +3353,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" hidden="1" spans="1:18">
+    <row r="4" spans="1:18">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -3409,7 +3409,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="5" hidden="1" spans="1:17">
+    <row r="5" spans="1:17">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -3462,7 +3462,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="6" hidden="1" spans="1:17">
+    <row r="6" spans="1:17">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -3515,7 +3515,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" hidden="1" spans="1:19">
+    <row r="7" spans="1:19">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -3574,7 +3574,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="8" hidden="1" spans="1:17">
+    <row r="8" spans="1:17">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -3627,7 +3627,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" hidden="1" spans="1:19">
+    <row r="9" spans="1:19">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -3686,7 +3686,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="10" hidden="1" spans="1:17">
+    <row r="10" spans="1:17">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -3739,7 +3739,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" hidden="1" spans="1:17">
+    <row r="11" spans="1:17">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -3792,7 +3792,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12" hidden="1" spans="1:17">
+    <row r="12" spans="1:17">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -3907,7 +3907,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="14" hidden="1" spans="1:17">
+    <row r="14" spans="1:17">
       <c r="A14" s="4">
         <v>13</v>
       </c>
@@ -3960,7 +3960,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="15" hidden="1" spans="1:17">
+    <row r="15" spans="1:17">
       <c r="A15" s="4">
         <v>14</v>
       </c>
@@ -4199,7 +4199,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="19" hidden="1" spans="1:19">
+    <row r="19" spans="1:19">
       <c r="A19" s="4">
         <v>18</v>
       </c>
@@ -4258,7 +4258,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="20" hidden="1" spans="1:18">
+    <row r="20" spans="1:18">
       <c r="A20" s="4">
         <v>19</v>
       </c>
@@ -4314,7 +4314,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="21" hidden="1" spans="1:19">
+    <row r="21" spans="1:19">
       <c r="A21" s="4">
         <v>20</v>
       </c>
@@ -4559,7 +4559,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="25" hidden="1" spans="1:19">
+    <row r="25" spans="1:19">
       <c r="A25" s="4">
         <v>24</v>
       </c>
@@ -4618,7 +4618,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="26" hidden="1" spans="1:19">
+    <row r="26" spans="1:19">
       <c r="A26" s="4">
         <v>25</v>
       </c>
@@ -5297,7 +5297,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="37" hidden="1" spans="1:19">
+    <row r="37" spans="1:19">
       <c r="A37" s="4">
         <v>36</v>
       </c>
@@ -5356,7 +5356,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="38" hidden="1" spans="1:19">
+    <row r="38" spans="1:19">
       <c r="A38" s="4">
         <v>37</v>
       </c>
@@ -5415,7 +5415,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="39" hidden="1" spans="1:19">
+    <row r="39" spans="1:19">
       <c r="A39" s="4">
         <v>38</v>
       </c>
@@ -5598,7 +5598,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="42" hidden="1" spans="1:19">
+    <row r="42" spans="1:19">
       <c r="A42" s="4">
         <v>41</v>
       </c>
@@ -5719,7 +5719,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="44" hidden="1" spans="1:19">
+    <row r="44" spans="1:19">
       <c r="A44" s="4">
         <v>43</v>
       </c>
@@ -5778,7 +5778,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="45" hidden="1" spans="1:17">
+    <row r="45" spans="1:17">
       <c r="A45" s="4">
         <v>44</v>
       </c>
@@ -5893,7 +5893,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="47" hidden="1" spans="1:17">
+    <row r="47" spans="1:17">
       <c r="A47" s="4">
         <v>46</v>
       </c>
@@ -5946,7 +5946,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="48" hidden="1" spans="1:17">
+    <row r="48" spans="1:17">
       <c r="A48" s="4">
         <v>47</v>
       </c>
@@ -5999,7 +5999,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="49" hidden="1" spans="1:17">
+    <row r="49" spans="1:17">
       <c r="A49" s="4">
         <v>48</v>
       </c>
@@ -6052,7 +6052,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="50" hidden="1" spans="1:18">
+    <row r="50" spans="1:18">
       <c r="A50" s="4">
         <v>49</v>
       </c>
@@ -6108,7 +6108,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="51" hidden="1" spans="1:18">
+    <row r="51" spans="1:18">
       <c r="A51" s="4">
         <v>50</v>
       </c>
@@ -6164,7 +6164,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="52" hidden="1" spans="1:19">
+    <row r="52" spans="1:19">
       <c r="A52" s="4">
         <v>51</v>
       </c>
@@ -6223,7 +6223,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="53" hidden="1" spans="1:19">
+    <row r="53" spans="1:19">
       <c r="A53" s="4">
         <v>52</v>
       </c>
@@ -6282,7 +6282,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="54" hidden="1" spans="1:17">
+    <row r="54" spans="1:17">
       <c r="A54" s="4">
         <v>53</v>
       </c>
@@ -6335,7 +6335,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="55" hidden="1" spans="1:17">
+    <row r="55" spans="1:17">
       <c r="A55" s="4">
         <v>54</v>
       </c>
@@ -6388,7 +6388,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="56" hidden="1" spans="1:17">
+    <row r="56" spans="1:17">
       <c r="A56" s="4">
         <v>55</v>
       </c>
@@ -6441,7 +6441,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="57" hidden="1" spans="1:19">
+    <row r="57" spans="1:19">
       <c r="A57" s="4">
         <v>56</v>
       </c>
@@ -6500,7 +6500,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="58" hidden="1" spans="1:19">
+    <row r="58" spans="1:19">
       <c r="A58" s="4">
         <v>57</v>
       </c>
@@ -6621,7 +6621,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="60" hidden="1" spans="1:19">
+    <row r="60" spans="1:19">
       <c r="A60" s="4">
         <v>59</v>
       </c>
@@ -6742,7 +6742,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="62" hidden="1" spans="1:17">
+    <row r="62" spans="1:17">
       <c r="A62" s="4">
         <v>61</v>
       </c>
@@ -6795,7 +6795,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="63" hidden="1" spans="1:19">
+    <row r="63" spans="1:19">
       <c r="A63" s="4">
         <v>62</v>
       </c>
@@ -6854,7 +6854,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="64" hidden="1" spans="1:19">
+    <row r="64" spans="1:19">
       <c r="A64" s="4">
         <v>63</v>
       </c>
@@ -6913,7 +6913,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="65" hidden="1" spans="1:17">
+    <row r="65" spans="1:17">
       <c r="A65" s="4">
         <v>64</v>
       </c>
@@ -6966,7 +6966,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="66" hidden="1" spans="1:19">
+    <row r="66" spans="1:19">
       <c r="A66" s="4">
         <v>65</v>
       </c>
@@ -7025,7 +7025,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="67" hidden="1" spans="1:17">
+    <row r="67" spans="1:17">
       <c r="A67" s="4">
         <v>66</v>
       </c>
@@ -7078,7 +7078,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="68" hidden="1" spans="1:17">
+    <row r="68" spans="1:17">
       <c r="A68" s="4">
         <v>67</v>
       </c>
@@ -7131,7 +7131,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="69" hidden="1" spans="1:18">
+    <row r="69" spans="1:18">
       <c r="A69" s="4">
         <v>68</v>
       </c>
@@ -7187,7 +7187,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="70" hidden="1" spans="1:17">
+    <row r="70" spans="1:17">
       <c r="A70" s="4">
         <v>69</v>
       </c>
@@ -7488,7 +7488,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="75" hidden="1" spans="1:17">
+    <row r="75" spans="1:17">
       <c r="A75" s="4">
         <v>74</v>
       </c>
@@ -7541,7 +7541,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="76" hidden="1" spans="1:17">
+    <row r="76" spans="1:17">
       <c r="A76" s="4">
         <v>75</v>
       </c>
@@ -7718,7 +7718,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="79" hidden="1" spans="1:19">
+    <row r="79" spans="1:19">
       <c r="A79" s="4">
         <v>78</v>
       </c>
@@ -7777,7 +7777,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="80" hidden="1" spans="1:19">
+    <row r="80" spans="1:19">
       <c r="A80" s="4">
         <v>79</v>
       </c>
@@ -7836,7 +7836,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="81" hidden="1" spans="1:19">
+    <row r="81" spans="1:19">
       <c r="A81" s="4">
         <v>80</v>
       </c>
@@ -7895,7 +7895,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="82" hidden="1" spans="1:19">
+    <row r="82" spans="1:19">
       <c r="A82" s="4">
         <v>81</v>
       </c>
@@ -7954,7 +7954,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="83" hidden="1" spans="1:19">
+    <row r="83" spans="1:19">
       <c r="A83" s="4">
         <v>82</v>
       </c>
@@ -8013,7 +8013,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="84" hidden="1" spans="1:19">
+    <row r="84" spans="1:19">
       <c r="A84" s="4">
         <v>83</v>
       </c>
@@ -8072,7 +8072,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="85" hidden="1" spans="1:19">
+    <row r="85" spans="1:19">
       <c r="A85" s="4">
         <v>84</v>
       </c>
@@ -8131,7 +8131,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="86" hidden="1" spans="1:19">
+    <row r="86" spans="1:19">
       <c r="A86" s="4">
         <v>85</v>
       </c>
@@ -8190,7 +8190,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="87" hidden="1" spans="1:19">
+    <row r="87" spans="1:19">
       <c r="A87" s="4">
         <v>86</v>
       </c>
@@ -8249,7 +8249,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="88" hidden="1" spans="1:19">
+    <row r="88" spans="1:19">
       <c r="A88" s="4">
         <v>87</v>
       </c>
@@ -8308,7 +8308,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="89" hidden="1" spans="1:19">
+    <row r="89" spans="1:19">
       <c r="A89" s="4">
         <v>88</v>
       </c>
@@ -8367,7 +8367,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="90" hidden="1" spans="1:19">
+    <row r="90" spans="1:19">
       <c r="A90" s="4">
         <v>89</v>
       </c>
@@ -8426,7 +8426,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="91" hidden="1" spans="1:19">
+    <row r="91" spans="1:19">
       <c r="A91" s="4">
         <v>90</v>
       </c>
@@ -8485,7 +8485,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="92" hidden="1" spans="1:19">
+    <row r="92" spans="1:19">
       <c r="A92" s="4">
         <v>91</v>
       </c>
@@ -8544,7 +8544,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="93" hidden="1" spans="1:19">
+    <row r="93" spans="1:19">
       <c r="A93" s="4">
         <v>92</v>
       </c>
@@ -8913,7 +8913,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="99" hidden="1" spans="1:18">
+    <row r="99" spans="1:18">
       <c r="A99" s="4">
         <v>98</v>
       </c>
@@ -8969,7 +8969,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="100" hidden="1" spans="1:19">
+    <row r="100" spans="1:19">
       <c r="A100" s="4">
         <v>99</v>
       </c>
@@ -9028,7 +9028,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="101" hidden="1" spans="1:17">
+    <row r="101" spans="1:17">
       <c r="A101" s="4">
         <v>100</v>
       </c>
@@ -9081,7 +9081,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="102" hidden="1" spans="1:19">
+    <row r="102" spans="1:19">
       <c r="A102" s="4">
         <v>101</v>
       </c>
@@ -9140,7 +9140,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="103" hidden="1" spans="1:19">
+    <row r="103" spans="1:19">
       <c r="A103" s="4">
         <v>102</v>
       </c>
@@ -9199,7 +9199,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="104" hidden="1" spans="1:19">
+    <row r="104" spans="1:19">
       <c r="A104" s="4">
         <v>103</v>
       </c>
@@ -9258,7 +9258,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="105" hidden="1" spans="1:17">
+    <row r="105" spans="1:17">
       <c r="A105" s="4">
         <v>104</v>
       </c>
@@ -9373,7 +9373,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="107" hidden="1" spans="1:19">
+    <row r="107" spans="1:19">
       <c r="A107" s="4">
         <v>106</v>
       </c>
@@ -9494,7 +9494,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="109" hidden="1" spans="1:17">
+    <row r="109" spans="1:17">
       <c r="A109" s="4">
         <v>108</v>
       </c>
@@ -9547,7 +9547,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="110" hidden="1" spans="1:17">
+    <row r="110" spans="1:17">
       <c r="A110" s="4">
         <v>109</v>
       </c>
@@ -9600,7 +9600,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="111" hidden="1" spans="1:17">
+    <row r="111" spans="1:17">
       <c r="A111" s="4">
         <v>110</v>
       </c>
@@ -9653,7 +9653,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="112" hidden="1" spans="1:17">
+    <row r="112" spans="1:17">
       <c r="A112" s="4">
         <v>111</v>
       </c>
@@ -9706,7 +9706,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="113" hidden="1" spans="1:17">
+    <row r="113" spans="1:17">
       <c r="A113" s="4">
         <v>112</v>
       </c>
@@ -9759,7 +9759,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="114" hidden="1" spans="1:17">
+    <row r="114" spans="1:17">
       <c r="A114" s="4">
         <v>113</v>
       </c>
@@ -9812,7 +9812,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="115" hidden="1" spans="1:19">
+    <row r="115" spans="1:19">
       <c r="A115" s="4">
         <v>114</v>
       </c>
@@ -9871,7 +9871,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="116" hidden="1" spans="1:19">
+    <row r="116" spans="1:19">
       <c r="A116" s="4">
         <v>115</v>
       </c>
@@ -9930,7 +9930,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="117" hidden="1" spans="1:19">
+    <row r="117" spans="1:19">
       <c r="A117" s="4">
         <v>116</v>
       </c>
@@ -9989,7 +9989,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="118" hidden="1" spans="1:19">
+    <row r="118" spans="1:19">
       <c r="A118" s="4">
         <v>117</v>
       </c>
@@ -10048,7 +10048,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="119" hidden="1" spans="1:19">
+    <row r="119" spans="1:19">
       <c r="A119" s="4">
         <v>118</v>
       </c>
@@ -10107,7 +10107,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="120" hidden="1" spans="1:18">
+    <row r="120" spans="1:18">
       <c r="A120" s="4">
         <v>119</v>
       </c>
@@ -10163,7 +10163,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="121" hidden="1" spans="1:17">
+    <row r="121" spans="1:17">
       <c r="A121" s="4">
         <v>120</v>
       </c>
@@ -10216,7 +10216,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="122" hidden="1" spans="1:17">
+    <row r="122" spans="1:17">
       <c r="A122" s="4">
         <v>121</v>
       </c>
@@ -10269,7 +10269,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="123" hidden="1" spans="1:19">
+    <row r="123" spans="1:19">
       <c r="A123" s="4">
         <v>122</v>
       </c>
@@ -10326,7 +10326,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="124" hidden="1" spans="1:19">
+    <row r="124" spans="1:19">
       <c r="A124" s="4">
         <v>123</v>
       </c>
@@ -10443,7 +10443,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="126" hidden="1" spans="1:17">
+    <row r="126" spans="1:17">
       <c r="A126" s="4">
         <v>125</v>
       </c>
@@ -10494,7 +10494,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="127" hidden="1" spans="1:19">
+    <row r="127" spans="1:19">
       <c r="A127" s="4">
         <v>126</v>
       </c>
@@ -10553,7 +10553,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="128" hidden="1" spans="1:19">
+    <row r="128" spans="1:19">
       <c r="A128" s="4">
         <v>127</v>
       </c>
@@ -10610,7 +10610,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="129" hidden="1" spans="1:17">
+    <row r="129" spans="1:17">
       <c r="A129" s="4">
         <v>128</v>
       </c>
@@ -10663,7 +10663,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="130" hidden="1" spans="1:17">
+    <row r="130" spans="1:17">
       <c r="A130" s="4">
         <v>129</v>
       </c>
@@ -10716,7 +10716,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="131" hidden="1" spans="1:17">
+    <row r="131" spans="1:17">
       <c r="A131" s="4">
         <v>130</v>
       </c>
@@ -10769,7 +10769,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="132" hidden="1" spans="1:17">
+    <row r="132" spans="1:17">
       <c r="A132" s="4">
         <v>131</v>
       </c>
@@ -10822,7 +10822,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="133" hidden="1" spans="1:19">
+    <row r="133" spans="1:19">
       <c r="A133" s="4">
         <v>132</v>
       </c>
@@ -10881,7 +10881,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="134" hidden="1" spans="1:17">
+    <row r="134" spans="1:17">
       <c r="A134" s="4">
         <v>133</v>
       </c>
@@ -10934,7 +10934,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="135" hidden="1" spans="1:17">
+    <row r="135" spans="1:17">
       <c r="A135" s="4">
         <v>134</v>
       </c>
@@ -10987,7 +10987,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="136" hidden="1" spans="1:17">
+    <row r="136" spans="1:17">
       <c r="A136" s="4">
         <v>135</v>
       </c>
@@ -11040,7 +11040,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="137" hidden="1" spans="1:18">
+    <row r="137" spans="1:18">
       <c r="A137" s="4">
         <v>136</v>
       </c>
@@ -11096,7 +11096,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="138" hidden="1" spans="1:18">
+    <row r="138" spans="1:18">
       <c r="A138" s="4">
         <v>137</v>
       </c>
@@ -11270,7 +11270,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="141" hidden="1" spans="1:17">
+    <row r="141" spans="1:17">
       <c r="A141" s="4">
         <v>140</v>
       </c>
@@ -11323,7 +11323,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="142" hidden="1" spans="1:18">
+    <row r="142" spans="1:18">
       <c r="A142" s="4">
         <v>141</v>
       </c>
@@ -11377,7 +11377,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="143" hidden="1" spans="1:18">
+    <row r="143" spans="1:18">
       <c r="A143" s="4">
         <v>142</v>
       </c>
@@ -11433,7 +11433,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="144" hidden="1" spans="1:17">
+    <row r="144" spans="1:17">
       <c r="A144" s="4">
         <v>143</v>
       </c>
@@ -11486,7 +11486,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="145" hidden="1" spans="1:17">
+    <row r="145" spans="1:17">
       <c r="A145" s="4">
         <v>144</v>
       </c>
@@ -11537,7 +11537,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="146" hidden="1" spans="1:17">
+    <row r="146" spans="1:17">
       <c r="A146" s="4">
         <v>145</v>
       </c>
@@ -11590,7 +11590,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="147" hidden="1" spans="1:19">
+    <row r="147" spans="1:19">
       <c r="A147" s="4">
         <v>146</v>
       </c>
@@ -11649,7 +11649,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="148" hidden="1" spans="1:17">
+    <row r="148" spans="1:17">
       <c r="A148" s="4">
         <v>147</v>
       </c>
@@ -11702,7 +11702,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="149" hidden="1" spans="1:19">
+    <row r="149" spans="1:19">
       <c r="A149" s="4">
         <v>148</v>
       </c>
@@ -11759,7 +11759,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="150" hidden="1" spans="1:18">
+    <row r="150" spans="1:18">
       <c r="A150" s="4">
         <v>149</v>
       </c>
@@ -11813,7 +11813,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="151" hidden="1" spans="1:18">
+    <row r="151" spans="1:18">
       <c r="A151" s="4">
         <v>150</v>
       </c>
@@ -11867,7 +11867,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="152" hidden="1" spans="1:18">
+    <row r="152" spans="1:18">
       <c r="A152" s="4">
         <v>151</v>
       </c>
@@ -11921,7 +11921,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="153" hidden="1" spans="1:17">
+    <row r="153" spans="1:17">
       <c r="A153" s="4">
         <v>152</v>
       </c>
@@ -11972,7 +11972,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="154" hidden="1" spans="1:17">
+    <row r="154" spans="1:17">
       <c r="A154" s="4">
         <v>153</v>
       </c>
@@ -12023,7 +12023,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="155" hidden="1" spans="1:17">
+    <row r="155" spans="1:17">
       <c r="A155" s="4">
         <v>154</v>
       </c>
@@ -12074,7 +12074,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="156" hidden="1" spans="1:17">
+    <row r="156" spans="1:17">
       <c r="A156" s="4">
         <v>155</v>
       </c>
@@ -12125,7 +12125,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="157" hidden="1" spans="1:17">
+    <row r="157" spans="1:17">
       <c r="A157" s="4">
         <v>156</v>
       </c>
@@ -12176,7 +12176,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="158" hidden="1" spans="1:18">
+    <row r="158" spans="1:18">
       <c r="A158" s="4">
         <v>157</v>
       </c>
@@ -12230,7 +12230,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="159" hidden="1" spans="1:17">
+    <row r="159" spans="1:17">
       <c r="A159" s="4">
         <v>158</v>
       </c>
@@ -12281,7 +12281,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="160" hidden="1" spans="1:18">
+    <row r="160" spans="1:18">
       <c r="A160" s="4">
         <v>159</v>
       </c>
@@ -12335,7 +12335,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="161" hidden="1" spans="1:17">
+    <row r="161" spans="1:17">
       <c r="A161" s="4">
         <v>160</v>
       </c>
@@ -12386,7 +12386,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="162" hidden="1" spans="1:17">
+    <row r="162" spans="1:17">
       <c r="A162" s="4">
         <v>161</v>
       </c>
@@ -12437,7 +12437,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="163" hidden="1" spans="1:17">
+    <row r="163" spans="1:17">
       <c r="A163" s="4">
         <v>162</v>
       </c>
@@ -12488,7 +12488,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="164" hidden="1" spans="1:17">
+    <row r="164" spans="1:17">
       <c r="A164" s="4">
         <v>163</v>
       </c>
@@ -12539,7 +12539,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="165" hidden="1" spans="1:17">
+    <row r="165" spans="1:17">
       <c r="A165" s="4">
         <v>164</v>
       </c>
@@ -12590,7 +12590,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="166" hidden="1" spans="1:17">
+    <row r="166" spans="1:17">
       <c r="A166" s="4">
         <v>165</v>
       </c>
@@ -12641,7 +12641,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="167" hidden="1" spans="1:17">
+    <row r="167" spans="1:17">
       <c r="A167" s="4">
         <v>166</v>
       </c>
@@ -12692,7 +12692,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="168" hidden="1" spans="1:17">
+    <row r="168" spans="1:17">
       <c r="A168" s="4">
         <v>167</v>
       </c>
@@ -12743,7 +12743,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="169" hidden="1" spans="1:17">
+    <row r="169" spans="1:17">
       <c r="A169" s="4">
         <v>168</v>
       </c>
@@ -12794,7 +12794,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="170" hidden="1" spans="1:17">
+    <row r="170" spans="1:17">
       <c r="A170" s="4">
         <v>169</v>
       </c>
@@ -12845,7 +12845,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="171" hidden="1" spans="1:17">
+    <row r="171" spans="1:17">
       <c r="A171" s="4">
         <v>170</v>
       </c>
@@ -12896,7 +12896,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="172" hidden="1" spans="1:17">
+    <row r="172" spans="1:17">
       <c r="A172" s="4">
         <v>171</v>
       </c>
@@ -12947,7 +12947,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="173" hidden="1" spans="1:17">
+    <row r="173" spans="1:17">
       <c r="A173" s="4">
         <v>172</v>
       </c>
@@ -12998,7 +12998,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="174" hidden="1" spans="1:17">
+    <row r="174" spans="1:17">
       <c r="A174" s="4">
         <v>173</v>
       </c>
@@ -13049,7 +13049,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="175" hidden="1" spans="1:17">
+    <row r="175" spans="1:17">
       <c r="A175" s="4">
         <v>174</v>
       </c>
@@ -13100,7 +13100,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="176" hidden="1" spans="1:18">
+    <row r="176" spans="1:18">
       <c r="A176" s="4">
         <v>175</v>
       </c>
@@ -13154,7 +13154,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="177" hidden="1" spans="1:17">
+    <row r="177" spans="1:17">
       <c r="A177" s="4">
         <v>176</v>
       </c>
@@ -13205,7 +13205,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="178" hidden="1" spans="1:17">
+    <row r="178" spans="1:17">
       <c r="A178" s="4">
         <v>177</v>
       </c>
@@ -13256,7 +13256,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="179" hidden="1" spans="1:17">
+    <row r="179" spans="1:17">
       <c r="A179" s="4">
         <v>178</v>
       </c>
@@ -13307,7 +13307,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="180" hidden="1" spans="1:17">
+    <row r="180" spans="1:17">
       <c r="A180" s="4">
         <v>179</v>
       </c>
@@ -13358,7 +13358,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="181" hidden="1" spans="1:17">
+    <row r="181" spans="1:17">
       <c r="A181" s="4">
         <v>180</v>
       </c>
@@ -13409,7 +13409,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="182" hidden="1" spans="1:17">
+    <row r="182" spans="1:17">
       <c r="A182" s="4">
         <v>181</v>
       </c>
@@ -13462,7 +13462,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="183" hidden="1" spans="1:17">
+    <row r="183" spans="1:17">
       <c r="A183" s="4">
         <v>182</v>
       </c>
@@ -13515,7 +13515,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="184" hidden="1" spans="1:17">
+    <row r="184" spans="1:17">
       <c r="A184" s="4">
         <v>183</v>
       </c>
@@ -13566,7 +13566,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="185" hidden="1" spans="1:17">
+    <row r="185" spans="1:17">
       <c r="A185" s="4">
         <v>184</v>
       </c>
@@ -13617,7 +13617,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="186" hidden="1" spans="1:17">
+    <row r="186" spans="1:17">
       <c r="A186" s="4">
         <v>185</v>
       </c>
@@ -13668,7 +13668,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="187" hidden="1" spans="1:17">
+    <row r="187" spans="1:17">
       <c r="A187" s="4">
         <v>186</v>
       </c>
@@ -13721,7 +13721,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="188" hidden="1" spans="1:17">
+    <row r="188" spans="1:17">
       <c r="A188" s="4">
         <v>187</v>
       </c>
@@ -13774,7 +13774,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="189" hidden="1" spans="1:17">
+    <row r="189" spans="1:17">
       <c r="A189" s="4">
         <v>188</v>
       </c>
@@ -13827,7 +13827,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="190" hidden="1" spans="1:17">
+    <row r="190" spans="1:17">
       <c r="A190" s="4">
         <v>189</v>
       </c>
@@ -13880,7 +13880,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="191" hidden="1" spans="1:17">
+    <row r="191" spans="1:17">
       <c r="A191" s="4">
         <v>190</v>
       </c>
@@ -13933,7 +13933,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="192" hidden="1" spans="1:17">
+    <row r="192" spans="1:17">
       <c r="A192" s="4">
         <v>191</v>
       </c>
@@ -13986,7 +13986,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="193" hidden="1" spans="1:17">
+    <row r="193" spans="1:17">
       <c r="A193" s="4">
         <v>192</v>
       </c>
@@ -14039,7 +14039,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="194" hidden="1" spans="1:17">
+    <row r="194" spans="1:17">
       <c r="A194" s="4">
         <v>193</v>
       </c>
@@ -14090,7 +14090,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="195" hidden="1" spans="1:18">
+    <row r="195" spans="1:18">
       <c r="A195" s="4">
         <v>194</v>
       </c>
@@ -14146,7 +14146,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="196" hidden="1" spans="1:17">
+    <row r="196" spans="1:17">
       <c r="A196" s="4">
         <v>195</v>
       </c>
@@ -14199,7 +14199,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="197" hidden="1" spans="1:17">
+    <row r="197" spans="1:17">
       <c r="A197" s="4">
         <v>196</v>
       </c>
@@ -14250,7 +14250,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="198" hidden="1" spans="1:17">
+    <row r="198" spans="1:17">
       <c r="A198" s="4">
         <v>197</v>
       </c>
@@ -14301,7 +14301,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="199" hidden="1" spans="1:17">
+    <row r="199" spans="1:17">
       <c r="A199" s="4">
         <v>198</v>
       </c>
@@ -14352,7 +14352,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="200" hidden="1" spans="1:17">
+    <row r="200" spans="1:17">
       <c r="A200" s="4">
         <v>199</v>
       </c>
@@ -14403,7 +14403,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="201" hidden="1" spans="1:17">
+    <row r="201" spans="1:17">
       <c r="A201" s="4">
         <v>200</v>
       </c>
@@ -14454,7 +14454,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="202" hidden="1" spans="1:17">
+    <row r="202" spans="1:17">
       <c r="A202" s="4">
         <v>201</v>
       </c>
@@ -14507,7 +14507,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="203" hidden="1" spans="1:17">
+    <row r="203" spans="1:17">
       <c r="A203" s="4">
         <v>202</v>
       </c>
@@ -14560,7 +14560,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="204" hidden="1" spans="1:17">
+    <row r="204" spans="1:17">
       <c r="A204" s="4">
         <v>203</v>
       </c>
@@ -14613,7 +14613,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="205" hidden="1" spans="1:17">
+    <row r="205" spans="1:17">
       <c r="A205" s="4">
         <v>204</v>
       </c>
@@ -14664,7 +14664,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="206" hidden="1" spans="1:17">
+    <row r="206" spans="1:17">
       <c r="A206" s="4">
         <v>205</v>
       </c>
@@ -14717,7 +14717,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="207" hidden="1" spans="1:17">
+    <row r="207" spans="1:17">
       <c r="A207" s="4">
         <v>206</v>
       </c>
@@ -14768,7 +14768,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="208" hidden="1" spans="1:17">
+    <row r="208" spans="1:17">
       <c r="A208" s="4">
         <v>207</v>
       </c>
@@ -14819,7 +14819,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="209" hidden="1" spans="1:17">
+    <row r="209" spans="1:17">
       <c r="A209" s="4">
         <v>208</v>
       </c>
@@ -14870,7 +14870,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="210" hidden="1" spans="1:17">
+    <row r="210" spans="1:17">
       <c r="A210" s="4">
         <v>209</v>
       </c>
@@ -14923,7 +14923,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="211" hidden="1" spans="1:19">
+    <row r="211" spans="1:19">
       <c r="A211" s="4">
         <v>210</v>
       </c>
@@ -14982,7 +14982,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="212" hidden="1" spans="1:17">
+    <row r="212" spans="1:17">
       <c r="A212" s="4">
         <v>211</v>
       </c>
@@ -15035,7 +15035,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="213" hidden="1" spans="1:19">
+    <row r="213" spans="1:19">
       <c r="A213" s="4">
         <v>212</v>
       </c>
@@ -15094,7 +15094,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="214" hidden="1" spans="1:19">
+    <row r="214" spans="1:19">
       <c r="A214" s="4">
         <v>213</v>
       </c>
@@ -15153,7 +15153,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="215" hidden="1" spans="1:19">
+    <row r="215" spans="1:19">
       <c r="A215" s="4">
         <v>214</v>
       </c>
@@ -15212,7 +15212,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="216" hidden="1" spans="1:19">
+    <row r="216" spans="1:19">
       <c r="A216" s="4">
         <v>215</v>
       </c>
@@ -15271,7 +15271,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="217" hidden="1" spans="1:17">
+    <row r="217" spans="1:17">
       <c r="A217" s="4">
         <v>216</v>
       </c>
@@ -15322,7 +15322,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="218" hidden="1" spans="1:17">
+    <row r="218" spans="1:17">
       <c r="A218" s="4">
         <v>217</v>
       </c>
@@ -15375,7 +15375,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="219" hidden="1" spans="1:19">
+    <row r="219" spans="1:19">
       <c r="A219" s="4">
         <v>218</v>
       </c>
@@ -15434,7 +15434,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="220" hidden="1" spans="1:17">
+    <row r="220" spans="1:17">
       <c r="A220" s="4">
         <v>219</v>
       </c>
@@ -15487,7 +15487,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="221" hidden="1" spans="1:19">
+    <row r="221" spans="1:19">
       <c r="A221" s="4">
         <v>220</v>
       </c>
@@ -15546,7 +15546,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="222" hidden="1" spans="1:19">
+    <row r="222" spans="1:19">
       <c r="A222" s="4">
         <v>221</v>
       </c>
@@ -15605,7 +15605,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="223" hidden="1" spans="1:17">
+    <row r="223" spans="1:17">
       <c r="A223" s="4">
         <v>222</v>
       </c>
@@ -15658,7 +15658,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="224" hidden="1" spans="1:19">
+    <row r="224" spans="1:19">
       <c r="A224" s="4">
         <v>223</v>
       </c>
@@ -15717,7 +15717,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="225" hidden="1" spans="1:18">
+    <row r="225" spans="1:18">
       <c r="A225" s="4">
         <v>224</v>
       </c>
@@ -15773,7 +15773,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="226" hidden="1" spans="1:17">
+    <row r="226" spans="1:17">
       <c r="A226" s="4">
         <v>225</v>
       </c>
@@ -15826,7 +15826,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="227" hidden="1" spans="1:17">
+    <row r="227" spans="1:17">
       <c r="A227" s="4">
         <v>226</v>
       </c>
@@ -15877,7 +15877,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="228" hidden="1" spans="1:17">
+    <row r="228" spans="1:17">
       <c r="A228" s="4">
         <v>227</v>
       </c>
@@ -15930,7 +15930,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="229" hidden="1" spans="1:18">
+    <row r="229" spans="1:18">
       <c r="A229" s="4">
         <v>228</v>
       </c>
@@ -15984,7 +15984,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="230" hidden="1" spans="1:17">
+    <row r="230" spans="1:17">
       <c r="A230" s="4">
         <v>229</v>
       </c>
@@ -16035,7 +16035,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="231" hidden="1" spans="1:17">
+    <row r="231" spans="1:17">
       <c r="A231" s="4">
         <v>230</v>
       </c>
@@ -16086,7 +16086,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="232" hidden="1" spans="1:17">
+    <row r="232" spans="1:17">
       <c r="A232" s="4">
         <v>231</v>
       </c>
@@ -16137,7 +16137,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="233" hidden="1" spans="1:17">
+    <row r="233" spans="1:17">
       <c r="A233" s="4">
         <v>232</v>
       </c>
@@ -16188,7 +16188,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="234" hidden="1" spans="1:17">
+    <row r="234" spans="1:17">
       <c r="A234" s="4">
         <v>233</v>
       </c>
@@ -16241,7 +16241,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="235" hidden="1" spans="1:18">
+    <row r="235" spans="1:18">
       <c r="A235" s="4">
         <v>234</v>
       </c>
@@ -16295,7 +16295,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="236" hidden="1" spans="1:17">
+    <row r="236" spans="1:17">
       <c r="A236" s="4">
         <v>235</v>
       </c>
@@ -16346,7 +16346,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="237" hidden="1" spans="1:17">
+    <row r="237" spans="1:17">
       <c r="A237" s="4">
         <v>236</v>
       </c>
@@ -16397,7 +16397,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="238" hidden="1" spans="1:17">
+    <row r="238" spans="1:17">
       <c r="A238" s="4">
         <v>237</v>
       </c>
@@ -16448,7 +16448,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="239" hidden="1" spans="1:17">
+    <row r="239" spans="1:17">
       <c r="A239" s="4">
         <v>238</v>
       </c>
@@ -16499,7 +16499,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="240" hidden="1" spans="1:17">
+    <row r="240" spans="1:17">
       <c r="A240" s="4">
         <v>239</v>
       </c>
@@ -16550,7 +16550,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="241" hidden="1" spans="1:17">
+    <row r="241" spans="1:17">
       <c r="A241" s="4">
         <v>240</v>
       </c>
@@ -16601,7 +16601,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="242" hidden="1" spans="1:17">
+    <row r="242" spans="1:17">
       <c r="A242" s="4">
         <v>241</v>
       </c>
@@ -16652,7 +16652,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="243" hidden="1" spans="1:19">
+    <row r="243" spans="1:19">
       <c r="A243" s="4">
         <v>242</v>
       </c>
@@ -16711,7 +16711,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="244" hidden="1" spans="1:17">
+    <row r="244" spans="1:17">
       <c r="A244" s="4">
         <v>243</v>
       </c>
@@ -16762,7 +16762,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="245" hidden="1" spans="1:17">
+    <row r="245" spans="1:17">
       <c r="A245" s="4">
         <v>244</v>
       </c>
@@ -16813,7 +16813,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="246" hidden="1" spans="1:17">
+    <row r="246" spans="1:17">
       <c r="A246" s="4">
         <v>245</v>
       </c>
@@ -16866,7 +16866,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="247" hidden="1" spans="1:17">
+    <row r="247" spans="1:17">
       <c r="A247" s="4">
         <v>246</v>
       </c>
@@ -16917,7 +16917,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="248" hidden="1" spans="1:17">
+    <row r="248" spans="1:17">
       <c r="A248" s="4">
         <v>247</v>
       </c>
@@ -16968,7 +16968,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="249" hidden="1" spans="1:17">
+    <row r="249" spans="1:17">
       <c r="A249" s="4">
         <v>248</v>
       </c>
@@ -17021,7 +17021,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="250" hidden="1" spans="1:17">
+    <row r="250" spans="1:17">
       <c r="A250" s="4">
         <v>249</v>
       </c>
@@ -17072,7 +17072,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="251" hidden="1" spans="1:17">
+    <row r="251" spans="1:17">
       <c r="A251" s="4">
         <v>250</v>
       </c>
@@ -17125,7 +17125,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="252" hidden="1" spans="1:17">
+    <row r="252" spans="1:17">
       <c r="A252" s="4">
         <v>251</v>
       </c>
@@ -17176,7 +17176,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="253" hidden="1" spans="1:17">
+    <row r="253" spans="1:17">
       <c r="A253" s="4">
         <v>252</v>
       </c>
@@ -17229,7 +17229,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="254" hidden="1" spans="1:19">
+    <row r="254" spans="1:19">
       <c r="A254" s="4">
         <v>253</v>
       </c>
@@ -17288,7 +17288,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="255" hidden="1" spans="1:17">
+    <row r="255" spans="1:17">
       <c r="A255" s="4">
         <v>254</v>
       </c>
@@ -17341,7 +17341,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="256" hidden="1" spans="1:17">
+    <row r="256" spans="1:17">
       <c r="A256" s="4">
         <v>255</v>
       </c>
@@ -17394,7 +17394,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="257" hidden="1" spans="1:17">
+    <row r="257" spans="1:17">
       <c r="A257" s="4">
         <v>256</v>
       </c>
@@ -17447,7 +17447,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="258" hidden="1" spans="1:17">
+    <row r="258" spans="1:17">
       <c r="A258" s="4">
         <v>257</v>
       </c>
@@ -17500,7 +17500,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="259" hidden="1" spans="1:17">
+    <row r="259" spans="1:17">
       <c r="A259" s="4">
         <v>258</v>
       </c>
@@ -17551,7 +17551,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="260" hidden="1" spans="1:19">
+    <row r="260" spans="1:19">
       <c r="A260" s="4">
         <v>259</v>
       </c>
@@ -17610,7 +17610,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="261" hidden="1" spans="1:19">
+    <row r="261" spans="1:19">
       <c r="A261" s="4">
         <v>260</v>
       </c>
@@ -17669,7 +17669,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="262" hidden="1" spans="1:19">
+    <row r="262" spans="1:19">
       <c r="A262" s="4">
         <v>261</v>
       </c>
@@ -17728,7 +17728,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="263" hidden="1" spans="1:19">
+    <row r="263" spans="1:19">
       <c r="A263" s="4">
         <v>262</v>
       </c>
@@ -17787,7 +17787,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="264" hidden="1" spans="1:19">
+    <row r="264" spans="1:19">
       <c r="A264" s="4">
         <v>263</v>
       </c>
@@ -17846,7 +17846,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="265" hidden="1" spans="1:17">
+    <row r="265" spans="1:17">
       <c r="A265" s="4">
         <v>264</v>
       </c>
@@ -17899,7 +17899,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="266" hidden="1" spans="1:19">
+    <row r="266" spans="1:19">
       <c r="A266" s="4">
         <v>265</v>
       </c>
@@ -17958,7 +17958,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="267" hidden="1" spans="1:17">
+    <row r="267" spans="1:17">
       <c r="A267" s="4">
         <v>266</v>
       </c>
@@ -18011,7 +18011,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="268" hidden="1" spans="1:17">
+    <row r="268" spans="1:17">
       <c r="A268" s="4">
         <v>267</v>
       </c>
@@ -18064,7 +18064,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="269" hidden="1" spans="1:17">
+    <row r="269" spans="1:17">
       <c r="A269" s="4">
         <v>268</v>
       </c>
@@ -18117,7 +18117,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="270" hidden="1" spans="1:18">
+    <row r="270" spans="1:18">
       <c r="A270" s="4">
         <v>269</v>
       </c>
@@ -18173,7 +18173,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="271" hidden="1" spans="1:19">
+    <row r="271" spans="1:19">
       <c r="A271" s="4">
         <v>270</v>
       </c>
@@ -18232,7 +18232,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="272" hidden="1" spans="1:17">
+    <row r="272" spans="1:17">
       <c r="A272" s="4">
         <v>271</v>
       </c>
@@ -18285,7 +18285,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="273" hidden="1" spans="1:17">
+    <row r="273" spans="1:17">
       <c r="A273" s="4">
         <v>272</v>
       </c>
@@ -18338,7 +18338,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="274" hidden="1" spans="1:17">
+    <row r="274" spans="1:17">
       <c r="A274" s="4">
         <v>273</v>
       </c>
@@ -18391,7 +18391,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="275" hidden="1" spans="1:19">
+    <row r="275" spans="1:19">
       <c r="A275" s="4">
         <v>274</v>
       </c>
@@ -18450,7 +18450,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="276" hidden="1" spans="1:19">
+    <row r="276" spans="1:19">
       <c r="A276" s="4">
         <v>275</v>
       </c>
@@ -18509,7 +18509,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="277" hidden="1" spans="1:17">
+    <row r="277" spans="1:17">
       <c r="A277" s="4">
         <v>276</v>
       </c>
@@ -18562,7 +18562,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="278" hidden="1" spans="1:19">
+    <row r="278" spans="1:19">
       <c r="A278" s="4">
         <v>277</v>
       </c>
@@ -18621,7 +18621,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="279" hidden="1" spans="1:17">
+    <row r="279" spans="1:17">
       <c r="A279" s="4">
         <v>278</v>
       </c>
@@ -18674,7 +18674,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="280" hidden="1" spans="1:19">
+    <row r="280" spans="1:19">
       <c r="A280" s="4">
         <v>279</v>
       </c>
@@ -18733,7 +18733,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="281" hidden="1" spans="1:19">
+    <row r="281" spans="1:19">
       <c r="A281" s="4">
         <v>280</v>
       </c>
@@ -18792,7 +18792,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="282" hidden="1" spans="1:17">
+    <row r="282" spans="1:17">
       <c r="A282" s="4">
         <v>281</v>
       </c>
@@ -18845,7 +18845,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="283" hidden="1" spans="1:19">
+    <row r="283" spans="1:19">
       <c r="A283" s="4">
         <v>282</v>
       </c>
@@ -18904,7 +18904,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="284" hidden="1" spans="1:18">
+    <row r="284" spans="1:18">
       <c r="A284" s="4">
         <v>283</v>
       </c>
@@ -18960,7 +18960,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="285" hidden="1" spans="1:19">
+    <row r="285" spans="1:19">
       <c r="A285" s="4">
         <v>284</v>
       </c>
@@ -19017,7 +19017,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="286" hidden="1" spans="1:19">
+    <row r="286" spans="1:19">
       <c r="A286" s="4">
         <v>285</v>
       </c>
@@ -19074,7 +19074,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="287" hidden="1" spans="1:17">
+    <row r="287" spans="1:17">
       <c r="A287" s="4">
         <v>286</v>
       </c>
@@ -19127,7 +19127,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="288" hidden="1" spans="1:19">
+    <row r="288" spans="1:19">
       <c r="A288" s="4">
         <v>287</v>
       </c>
@@ -19186,7 +19186,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="289" hidden="1" spans="1:17">
+    <row r="289" spans="1:17">
       <c r="A289" s="4">
         <v>288</v>
       </c>
@@ -19239,7 +19239,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="290" hidden="1" spans="1:17">
+    <row r="290" spans="1:17">
       <c r="A290" s="4">
         <v>289</v>
       </c>
@@ -19290,7 +19290,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="291" hidden="1" spans="1:17">
+    <row r="291" spans="1:17">
       <c r="A291" s="4">
         <v>290</v>
       </c>
@@ -19341,7 +19341,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="292" hidden="1" spans="1:19">
+    <row r="292" spans="1:19">
       <c r="A292" s="4">
         <v>291</v>
       </c>
@@ -19462,7 +19462,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="294" hidden="1" spans="1:17">
+    <row r="294" spans="1:17">
       <c r="A294" s="4">
         <v>293</v>
       </c>
@@ -19515,7 +19515,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="295" hidden="1" spans="1:17">
+    <row r="295" spans="1:17">
       <c r="A295" s="4">
         <v>294</v>
       </c>
@@ -19568,7 +19568,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="296" hidden="1" spans="1:19">
+    <row r="296" spans="1:19">
       <c r="A296" s="4">
         <v>295</v>
       </c>
@@ -19627,7 +19627,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="297" hidden="1" spans="1:19">
+    <row r="297" spans="1:19">
       <c r="A297" s="4">
         <v>296</v>
       </c>
@@ -19686,7 +19686,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="298" hidden="1" spans="1:19">
+    <row r="298" spans="1:19">
       <c r="A298" s="4">
         <v>297</v>
       </c>
@@ -19807,7 +19807,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="300" hidden="1" spans="1:19">
+    <row r="300" spans="1:19">
       <c r="A300" s="4">
         <v>299</v>
       </c>
@@ -19928,7 +19928,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="302" hidden="1" spans="1:19">
+    <row r="302" spans="1:19">
       <c r="A302" s="4">
         <v>301</v>
       </c>
@@ -19987,7 +19987,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="303" hidden="1" spans="1:17">
+    <row r="303" spans="1:17">
       <c r="A303" s="4">
         <v>302</v>
       </c>
@@ -20040,7 +20040,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="304" hidden="1" spans="1:19">
+    <row r="304" spans="1:19">
       <c r="A304" s="4">
         <v>303</v>
       </c>
@@ -20161,7 +20161,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="306" hidden="1" spans="1:19">
+    <row r="306" spans="1:19">
       <c r="A306" s="4">
         <v>305</v>
       </c>
@@ -20220,7 +20220,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="307" hidden="1" spans="1:17">
+    <row r="307" spans="1:17">
       <c r="A307" s="4">
         <v>306</v>
       </c>
@@ -20271,7 +20271,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="308" hidden="1" spans="1:17">
+    <row r="308" spans="1:17">
       <c r="A308" s="4">
         <v>307</v>
       </c>
@@ -20322,7 +20322,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="309" hidden="1" spans="1:17">
+    <row r="309" spans="1:17">
       <c r="A309" s="4">
         <v>308</v>
       </c>
@@ -20373,7 +20373,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="310" hidden="1" spans="1:19">
+    <row r="310" spans="1:19">
       <c r="A310" s="4">
         <v>309</v>
       </c>
@@ -20430,7 +20430,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="311" hidden="1" spans="1:17">
+    <row r="311" spans="1:17">
       <c r="A311" s="4">
         <v>310</v>
       </c>
@@ -20481,7 +20481,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="312" hidden="1" spans="1:17">
+    <row r="312" spans="1:17">
       <c r="A312" s="4">
         <v>311</v>
       </c>
@@ -20532,7 +20532,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="313" hidden="1" spans="1:17">
+    <row r="313" spans="1:17">
       <c r="A313" s="4">
         <v>312</v>
       </c>
@@ -20583,7 +20583,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="314" hidden="1" spans="1:17">
+    <row r="314" spans="1:17">
       <c r="A314" s="4">
         <v>313</v>
       </c>
@@ -20634,7 +20634,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="315" hidden="1" spans="1:17">
+    <row r="315" spans="1:17">
       <c r="A315" s="4">
         <v>314</v>
       </c>
@@ -20685,7 +20685,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="316" hidden="1" spans="1:17">
+    <row r="316" spans="1:17">
       <c r="A316" s="4">
         <v>315</v>
       </c>
@@ -20736,7 +20736,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="317" hidden="1" spans="1:17">
+    <row r="317" spans="1:17">
       <c r="A317" s="4">
         <v>316</v>
       </c>
@@ -20787,7 +20787,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="318" hidden="1" spans="1:17">
+    <row r="318" spans="1:17">
       <c r="A318" s="4">
         <v>317</v>
       </c>
@@ -20838,7 +20838,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="319" hidden="1" spans="1:17">
+    <row r="319" spans="1:17">
       <c r="A319" s="4">
         <v>318</v>
       </c>
@@ -20889,7 +20889,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="320" hidden="1" spans="1:19">
+    <row r="320" spans="1:19">
       <c r="A320" s="4">
         <v>319</v>
       </c>
@@ -20948,7 +20948,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="321" hidden="1" spans="1:17">
+    <row r="321" spans="1:17">
       <c r="A321" s="4">
         <v>320</v>
       </c>
@@ -20999,7 +20999,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="322" hidden="1" spans="1:17">
+    <row r="322" spans="1:17">
       <c r="A322" s="4">
         <v>321</v>
       </c>
@@ -21050,7 +21050,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="323" hidden="1" spans="1:17">
+    <row r="323" spans="1:17">
       <c r="A323" s="4">
         <v>322</v>
       </c>
@@ -21101,7 +21101,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="324" hidden="1" spans="1:17">
+    <row r="324" spans="1:17">
       <c r="A324" s="4">
         <v>323</v>
       </c>
@@ -21154,7 +21154,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="325" hidden="1" spans="1:17">
+    <row r="325" spans="1:17">
       <c r="A325" s="4">
         <v>324</v>
       </c>
@@ -21267,7 +21267,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="327" hidden="1" spans="1:17">
+    <row r="327" spans="1:17">
       <c r="A327" s="4">
         <v>326</v>
       </c>
@@ -21318,7 +21318,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="328" hidden="1" spans="1:17">
+    <row r="328" spans="1:17">
       <c r="A328" s="4">
         <v>327</v>
       </c>
@@ -21371,7 +21371,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="329" hidden="1" spans="1:19">
+    <row r="329" spans="1:19">
       <c r="A329" s="4">
         <v>328</v>
       </c>
@@ -21430,7 +21430,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="330" hidden="1" spans="1:17">
+    <row r="330" spans="1:17">
       <c r="A330" s="4">
         <v>329</v>
       </c>
@@ -21483,7 +21483,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="331" hidden="1" spans="1:17">
+    <row r="331" spans="1:17">
       <c r="A331" s="4">
         <v>330</v>
       </c>
@@ -21536,7 +21536,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="332" hidden="1" spans="1:19">
+    <row r="332" spans="1:19">
       <c r="A332" s="4">
         <v>331</v>
       </c>
@@ -21593,7 +21593,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="333" hidden="1" spans="1:17">
+    <row r="333" spans="1:17">
       <c r="A333" s="4">
         <v>332</v>
       </c>
@@ -21644,7 +21644,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="334" hidden="1" spans="1:17">
+    <row r="334" spans="1:17">
       <c r="A334" s="4">
         <v>333</v>
       </c>
@@ -21697,7 +21697,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="335" hidden="1" spans="1:17">
+    <row r="335" spans="1:17">
       <c r="A335" s="4">
         <v>334</v>
       </c>
@@ -21748,7 +21748,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="336" hidden="1" spans="1:17">
+    <row r="336" spans="1:17">
       <c r="A336" s="4">
         <v>335</v>
       </c>
@@ -21799,7 +21799,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="337" hidden="1" spans="1:17">
+    <row r="337" spans="1:17">
       <c r="A337" s="4">
         <v>336</v>
       </c>
@@ -21850,7 +21850,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="338" hidden="1" spans="1:17">
+    <row r="338" spans="1:17">
       <c r="A338" s="4">
         <v>337</v>
       </c>
@@ -21901,7 +21901,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="339" hidden="1" spans="1:17">
+    <row r="339" spans="1:17">
       <c r="A339" s="4">
         <v>338</v>
       </c>
@@ -21954,7 +21954,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="340" hidden="1" spans="1:17">
+    <row r="340" spans="1:17">
       <c r="A340" s="4">
         <v>339</v>
       </c>
@@ -22007,7 +22007,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="341" hidden="1" spans="1:17">
+    <row r="341" spans="1:17">
       <c r="A341" s="4">
         <v>340</v>
       </c>
@@ -22060,7 +22060,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="342" hidden="1" spans="1:20">
+    <row r="342" spans="1:20">
       <c r="A342" s="4">
         <v>341</v>
       </c>
@@ -22170,7 +22170,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="344" hidden="1" spans="1:17">
+    <row r="344" spans="1:17">
       <c r="A344" s="4">
         <v>343</v>
       </c>
@@ -22283,7 +22283,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="346" hidden="1" spans="1:17">
+    <row r="346" spans="1:17">
       <c r="A346" s="4">
         <v>345</v>
       </c>
@@ -22336,7 +22336,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="347" hidden="1" spans="1:18">
+    <row r="347" spans="1:18">
       <c r="A347" s="4">
         <v>346</v>
       </c>
@@ -22392,7 +22392,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="348" hidden="1" spans="1:17">
+    <row r="348" spans="1:17">
       <c r="A348" s="4">
         <v>347</v>
       </c>
@@ -22443,7 +22443,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="349" hidden="1" spans="1:17">
+    <row r="349" spans="1:17">
       <c r="A349" s="4">
         <v>348</v>
       </c>
@@ -22494,7 +22494,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="350" hidden="1" spans="1:17">
+    <row r="350" spans="1:17">
       <c r="A350" s="4">
         <v>349</v>
       </c>
@@ -22545,7 +22545,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="351" hidden="1" spans="1:19">
+    <row r="351" spans="1:19">
       <c r="A351" s="4">
         <v>350</v>
       </c>
@@ -22604,7 +22604,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="352" hidden="1" spans="1:19">
+    <row r="352" spans="1:19">
       <c r="A352" s="4">
         <v>351</v>
       </c>
@@ -22663,7 +22663,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="353" hidden="1" spans="1:17">
+    <row r="353" spans="1:17">
       <c r="A353" s="4">
         <v>352</v>
       </c>
@@ -22714,7 +22714,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="354" hidden="1" spans="1:17">
+    <row r="354" spans="1:17">
       <c r="A354" s="4">
         <v>353</v>
       </c>
@@ -22765,7 +22765,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="355" hidden="1" spans="1:17">
+    <row r="355" spans="1:17">
       <c r="A355" s="4">
         <v>354</v>
       </c>
@@ -22818,7 +22818,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="356" hidden="1" spans="1:17">
+    <row r="356" spans="1:17">
       <c r="A356" s="4">
         <v>355</v>
       </c>
@@ -22871,7 +22871,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="357" hidden="1" spans="1:19">
+    <row r="357" spans="1:19">
       <c r="A357" s="4">
         <v>356</v>
       </c>
@@ -22930,7 +22930,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="358" hidden="1" spans="1:17">
+    <row r="358" spans="1:17">
       <c r="A358" s="4">
         <v>357</v>
       </c>
@@ -22983,7 +22983,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="359" hidden="1" spans="1:18">
+    <row r="359" spans="1:18">
       <c r="A359" s="4">
         <v>358</v>
       </c>
@@ -23037,7 +23037,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="360" hidden="1" spans="1:17">
+    <row r="360" spans="1:17">
       <c r="A360" s="4">
         <v>359</v>
       </c>
@@ -23088,7 +23088,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="361" hidden="1" spans="1:17">
+    <row r="361" spans="1:17">
       <c r="A361" s="4">
         <v>360</v>
       </c>
@@ -23141,7 +23141,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="362" hidden="1" spans="1:19">
+    <row r="362" spans="1:19">
       <c r="A362" s="4">
         <v>361</v>
       </c>
@@ -23200,7 +23200,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="363" hidden="1" spans="1:17">
+    <row r="363" spans="1:17">
       <c r="A363" s="4">
         <v>362</v>
       </c>
@@ -23253,7 +23253,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="364" hidden="1" spans="1:17">
+    <row r="364" spans="1:17">
       <c r="A364" s="4">
         <v>363</v>
       </c>
@@ -23304,7 +23304,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="365" hidden="1" spans="1:17">
+    <row r="365" spans="1:17">
       <c r="A365" s="4">
         <v>364</v>
       </c>
@@ -23355,7 +23355,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="366" hidden="1" spans="1:17">
+    <row r="366" spans="1:17">
       <c r="A366" s="4">
         <v>365</v>
       </c>
@@ -23408,7 +23408,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="367" hidden="1" spans="1:17">
+    <row r="367" spans="1:17">
       <c r="A367" s="4">
         <v>366</v>
       </c>
@@ -23459,7 +23459,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="368" hidden="1" spans="1:17">
+    <row r="368" spans="1:17">
       <c r="A368" s="4">
         <v>367</v>
       </c>
@@ -23510,7 +23510,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="369" hidden="1" spans="1:18">
+    <row r="369" spans="1:18">
       <c r="A369" s="4">
         <v>368</v>
       </c>
@@ -23564,7 +23564,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="370" hidden="1" spans="1:18">
+    <row r="370" spans="1:18">
       <c r="A370" s="4">
         <v>369</v>
       </c>
@@ -23618,7 +23618,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="371" hidden="1" spans="1:17">
+    <row r="371" spans="1:17">
       <c r="A371" s="4">
         <v>370</v>
       </c>
@@ -23669,7 +23669,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="372" hidden="1" spans="1:18">
+    <row r="372" spans="1:18">
       <c r="A372" s="4">
         <v>371</v>
       </c>
@@ -23723,7 +23723,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="373" hidden="1" spans="1:17">
+    <row r="373" spans="1:17">
       <c r="A373" s="4">
         <v>372</v>
       </c>
@@ -23774,7 +23774,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="374" hidden="1" spans="1:17">
+    <row r="374" spans="1:17">
       <c r="A374" s="4">
         <v>373</v>
       </c>
@@ -23825,7 +23825,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="375" hidden="1" spans="1:17">
+    <row r="375" spans="1:17">
       <c r="A375" s="4">
         <v>374</v>
       </c>
@@ -23876,7 +23876,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="376" hidden="1" spans="1:19">
+    <row r="376" spans="1:19">
       <c r="A376" s="4">
         <v>375</v>
       </c>
@@ -23997,7 +23997,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="378" hidden="1" spans="1:17">
+    <row r="378" spans="1:17">
       <c r="A378" s="4">
         <v>377</v>
       </c>
@@ -24050,7 +24050,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="379" hidden="1" spans="1:17">
+    <row r="379" spans="1:17">
       <c r="A379" s="4">
         <v>378</v>
       </c>
@@ -24165,7 +24165,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="381" hidden="1" spans="1:17">
+    <row r="381" spans="1:17">
       <c r="A381" s="4">
         <v>380</v>
       </c>
@@ -24218,7 +24218,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="382" hidden="1" spans="1:17">
+    <row r="382" spans="1:17">
       <c r="A382" s="4">
         <v>381</v>
       </c>
@@ -24269,7 +24269,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="383" hidden="1" spans="1:17">
+    <row r="383" spans="1:17">
       <c r="A383" s="4">
         <v>382</v>
       </c>
@@ -24320,7 +24320,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="384" hidden="1" spans="1:17">
+    <row r="384" spans="1:17">
       <c r="A384" s="4">
         <v>383</v>
       </c>
@@ -24373,7 +24373,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="385" hidden="1" spans="1:17">
+    <row r="385" spans="1:17">
       <c r="A385" s="4">
         <v>384</v>
       </c>
@@ -24424,7 +24424,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="386" hidden="1" spans="1:17">
+    <row r="386" spans="1:17">
       <c r="A386" s="4">
         <v>385</v>
       </c>
@@ -24477,7 +24477,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="387" hidden="1" spans="1:17">
+    <row r="387" spans="1:17">
       <c r="A387" s="4">
         <v>386</v>
       </c>
@@ -24530,7 +24530,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="388" hidden="1" spans="1:19">
+    <row r="388" spans="1:19">
       <c r="A388" s="4">
         <v>387</v>
       </c>
@@ -24589,7 +24589,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="389" hidden="1" spans="1:18">
+    <row r="389" spans="1:18">
       <c r="A389" s="4">
         <v>388</v>
       </c>
@@ -24643,7 +24643,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="390" hidden="1" spans="1:18">
+    <row r="390" spans="1:18">
       <c r="A390" s="4">
         <v>389</v>
       </c>
@@ -24697,7 +24697,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="391" hidden="1" spans="1:18">
+    <row r="391" spans="1:18">
       <c r="A391" s="4">
         <v>390</v>
       </c>
@@ -24751,7 +24751,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="392" hidden="1" spans="1:18">
+    <row r="392" spans="1:18">
       <c r="A392" s="4">
         <v>391</v>
       </c>
@@ -24805,7 +24805,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="393" hidden="1" spans="1:17">
+    <row r="393" spans="1:17">
       <c r="A393" s="4">
         <v>392</v>
       </c>
@@ -24856,7 +24856,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="394" hidden="1" spans="1:18">
+    <row r="394" spans="1:18">
       <c r="A394" s="4">
         <v>393</v>
       </c>
@@ -24972,7 +24972,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="396" hidden="1" spans="1:20">
+    <row r="396" spans="1:20">
       <c r="A396" s="4">
         <v>395</v>
       </c>
@@ -25032,7 +25032,7 @@
       </c>
       <c r="T396" s="17"/>
     </row>
-    <row r="397" hidden="1" spans="1:20">
+    <row r="397" spans="1:20">
       <c r="A397" s="4">
         <v>396</v>
       </c>
@@ -25086,7 +25086,7 @@
       </c>
       <c r="T397" s="17"/>
     </row>
-    <row r="398" hidden="1" spans="1:18">
+    <row r="398" spans="1:18">
       <c r="A398" s="4">
         <v>397</v>
       </c>
@@ -25140,7 +25140,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="399" hidden="1" spans="1:17">
+    <row r="399" spans="1:17">
       <c r="A399" s="4">
         <v>398</v>
       </c>
@@ -25191,7 +25191,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="400" hidden="1" spans="1:17">
+    <row r="400" spans="1:17">
       <c r="A400" s="4">
         <v>399</v>
       </c>
@@ -25304,7 +25304,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="402" hidden="1" spans="1:17">
+    <row r="402" spans="1:17">
       <c r="A402" s="4">
         <v>401</v>
       </c>
@@ -25357,7 +25357,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="403" hidden="1" spans="1:17">
+    <row r="403" spans="1:17">
       <c r="A403" s="4">
         <v>402</v>
       </c>
@@ -25410,7 +25410,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="404" hidden="1" spans="1:17">
+    <row r="404" spans="1:17">
       <c r="A404" s="4">
         <v>403</v>
       </c>
@@ -25463,7 +25463,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="405" hidden="1" spans="1:17">
+    <row r="405" spans="1:17">
       <c r="A405" s="4">
         <v>404</v>
       </c>
@@ -25516,7 +25516,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="406" hidden="1" spans="1:18">
+    <row r="406" spans="1:18">
       <c r="A406" s="4">
         <v>405</v>
       </c>
@@ -25572,7 +25572,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="407" hidden="1" spans="1:17">
+    <row r="407" spans="1:17">
       <c r="A407" s="4">
         <v>406</v>
       </c>
@@ -25625,7 +25625,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="408" hidden="1" spans="1:17">
+    <row r="408" spans="1:17">
       <c r="A408" s="4">
         <v>407</v>
       </c>
@@ -25676,7 +25676,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="409" hidden="1" spans="1:18">
+    <row r="409" spans="1:18">
       <c r="A409" s="4">
         <v>408</v>
       </c>
@@ -25730,7 +25730,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="410" hidden="1" spans="1:19">
+    <row r="410" spans="1:19">
       <c r="A410" s="4">
         <v>409</v>
       </c>
@@ -25787,7 +25787,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="411" hidden="1" spans="1:19">
+    <row r="411" spans="1:19">
       <c r="A411" s="4">
         <v>410</v>
       </c>
@@ -25844,7 +25844,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="412" hidden="1" spans="1:17">
+    <row r="412" spans="1:17">
       <c r="A412" s="4">
         <v>411</v>
       </c>
@@ -25897,7 +25897,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="413" hidden="1" spans="1:17">
+    <row r="413" spans="1:17">
       <c r="A413" s="4">
         <v>412</v>
       </c>
@@ -25948,7 +25948,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="414" hidden="1" spans="1:17">
+    <row r="414" spans="1:17">
       <c r="A414" s="4">
         <v>413</v>
       </c>
@@ -25999,7 +25999,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="415" hidden="1" spans="1:19">
+    <row r="415" spans="1:19">
       <c r="A415" s="4">
         <v>414</v>
       </c>
@@ -26058,7 +26058,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="416" hidden="1" spans="1:19">
+    <row r="416" spans="1:19">
       <c r="A416" s="4">
         <v>415</v>
       </c>
@@ -26117,7 +26117,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="417" hidden="1" spans="1:19">
+    <row r="417" spans="1:19">
       <c r="A417" s="4">
         <v>416</v>
       </c>
@@ -26176,7 +26176,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="418" hidden="1" spans="1:19">
+    <row r="418" spans="1:19">
       <c r="A418" s="4">
         <v>417</v>
       </c>
@@ -26235,7 +26235,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="419" hidden="1" spans="1:19">
+    <row r="419" spans="1:19">
       <c r="A419" s="4">
         <v>418</v>
       </c>
@@ -26294,7 +26294,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="420" hidden="1" spans="1:19">
+    <row r="420" spans="1:19">
       <c r="A420" s="4">
         <v>419</v>
       </c>
@@ -26353,7 +26353,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="421" hidden="1" spans="1:19">
+    <row r="421" spans="1:19">
       <c r="A421" s="4">
         <v>420</v>
       </c>
@@ -26412,7 +26412,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="422" hidden="1" spans="1:19">
+    <row r="422" spans="1:19">
       <c r="A422" s="4">
         <v>421</v>
       </c>
@@ -26531,7 +26531,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="424" hidden="1" spans="1:19">
+    <row r="424" spans="1:19">
       <c r="A424" s="4">
         <v>423</v>
       </c>
@@ -26590,7 +26590,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="425" hidden="1" spans="1:19">
+    <row r="425" spans="1:19">
       <c r="A425" s="4">
         <v>424</v>
       </c>
@@ -26649,7 +26649,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="426" hidden="1" spans="1:19">
+    <row r="426" spans="1:19">
       <c r="A426" s="4">
         <v>425</v>
       </c>
@@ -26708,7 +26708,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="427" hidden="1" spans="1:19">
+    <row r="427" spans="1:19">
       <c r="A427" s="4">
         <v>426</v>
       </c>
@@ -26767,7 +26767,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="428" hidden="1" spans="1:17">
+    <row r="428" spans="1:17">
       <c r="A428" s="4">
         <v>427</v>
       </c>
@@ -26820,7 +26820,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="429" hidden="1" spans="1:17">
+    <row r="429" spans="1:17">
       <c r="A429" s="4">
         <v>428</v>
       </c>
@@ -26873,7 +26873,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="430" hidden="1" spans="1:19">
+    <row r="430" spans="1:19">
       <c r="A430" s="4">
         <v>429</v>
       </c>
@@ -26990,7 +26990,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="432" hidden="1" spans="1:19">
+    <row r="432" spans="1:19">
       <c r="A432" s="4">
         <v>431</v>
       </c>
@@ -27047,7 +27047,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="433" hidden="1" spans="1:17">
+    <row r="433" spans="1:17">
       <c r="A433" s="4">
         <v>432</v>
       </c>
@@ -27100,7 +27100,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="434" hidden="1" spans="1:19">
+    <row r="434" spans="1:19">
       <c r="A434" s="4">
         <v>433</v>
       </c>
@@ -27277,7 +27277,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="437" hidden="1" spans="1:17">
+    <row r="437" spans="1:17">
       <c r="A437" s="4">
         <v>436</v>
       </c>
@@ -27330,7 +27330,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="438" hidden="1" spans="1:19">
+    <row r="438" spans="1:19">
       <c r="A438" s="4">
         <v>437</v>
       </c>
@@ -27389,7 +27389,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="439" hidden="1" spans="1:18">
+    <row r="439" spans="1:18">
       <c r="A439" s="4">
         <v>438</v>
       </c>
@@ -27445,7 +27445,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="440" hidden="1" spans="1:18">
+    <row r="440" spans="1:18">
       <c r="A440" s="4">
         <v>439</v>
       </c>
@@ -27499,7 +27499,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="441" hidden="1" spans="1:17">
+    <row r="441" spans="1:17">
       <c r="A441" s="4">
         <v>440</v>
       </c>
@@ -27550,7 +27550,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="442" hidden="1" spans="1:17">
+    <row r="442" spans="1:17">
       <c r="A442" s="4">
         <v>441</v>
       </c>
@@ -27601,7 +27601,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="443" hidden="1" spans="1:19">
+    <row r="443" spans="1:19">
       <c r="A443" s="4">
         <v>442</v>
       </c>
@@ -27660,7 +27660,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="444" hidden="1" spans="1:19">
+    <row r="444" spans="1:19">
       <c r="A444" s="4">
         <v>443</v>
       </c>
@@ -27719,7 +27719,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="445" hidden="1" spans="1:19">
+    <row r="445" spans="1:19">
       <c r="A445" s="4">
         <v>444</v>
       </c>
@@ -27778,7 +27778,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="446" hidden="1" spans="1:19">
+    <row r="446" spans="1:19">
       <c r="A446" s="4">
         <v>445</v>
       </c>
@@ -27837,7 +27837,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="447" hidden="1" spans="1:18">
+    <row r="447" spans="1:18">
       <c r="A447" s="4">
         <v>446</v>
       </c>
@@ -27893,7 +27893,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="448" hidden="1" spans="1:17">
+    <row r="448" spans="1:17">
       <c r="A448" s="4">
         <v>447</v>
       </c>
@@ -27946,7 +27946,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="449" hidden="1" spans="1:19">
+    <row r="449" spans="1:19">
       <c r="A449" s="4">
         <v>448</v>
       </c>
@@ -28005,7 +28005,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="450" hidden="1" spans="1:17">
+    <row r="450" spans="1:17">
       <c r="A450" s="4">
         <v>449</v>
       </c>
@@ -28058,7 +28058,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="451" hidden="1" spans="1:19">
+    <row r="451" spans="1:19">
       <c r="A451" s="4">
         <v>450</v>
       </c>
@@ -28117,7 +28117,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="452" hidden="1" spans="1:17">
+    <row r="452" spans="1:17">
       <c r="A452" s="4">
         <v>451</v>
       </c>
@@ -28170,7 +28170,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="453" hidden="1" spans="1:19">
+    <row r="453" spans="1:19">
       <c r="A453" s="4">
         <v>452</v>
       </c>
@@ -28229,7 +28229,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="454" hidden="1" spans="1:19">
+    <row r="454" spans="1:19">
       <c r="A454" s="4">
         <v>453</v>
       </c>
@@ -28288,7 +28288,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="455" hidden="1" spans="1:19">
+    <row r="455" spans="1:19">
       <c r="A455" s="4">
         <v>454</v>
       </c>
@@ -28347,7 +28347,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="456" hidden="1" spans="1:19">
+    <row r="456" spans="1:19">
       <c r="A456" s="4">
         <v>455</v>
       </c>
@@ -28406,7 +28406,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="457" hidden="1" spans="1:17">
+    <row r="457" spans="1:17">
       <c r="A457" s="4">
         <v>456</v>
       </c>
@@ -28459,7 +28459,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="458" hidden="1" spans="1:17">
+    <row r="458" spans="1:17">
       <c r="A458" s="4">
         <v>457</v>
       </c>
@@ -28512,7 +28512,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="459" hidden="1" spans="1:17">
+    <row r="459" spans="1:17">
       <c r="A459" s="4">
         <v>458</v>
       </c>
@@ -28563,7 +28563,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="460" hidden="1" spans="1:17">
+    <row r="460" spans="1:17">
       <c r="A460" s="4">
         <v>459</v>
       </c>
@@ -28614,7 +28614,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="461" hidden="1" spans="1:17">
+    <row r="461" spans="1:17">
       <c r="A461" s="4">
         <v>460</v>
       </c>
@@ -28665,7 +28665,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="462" hidden="1" spans="1:17">
+    <row r="462" spans="1:17">
       <c r="A462" s="4">
         <v>461</v>
       </c>
@@ -28716,7 +28716,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="463" hidden="1" spans="1:17">
+    <row r="463" spans="1:17">
       <c r="A463" s="4">
         <v>462</v>
       </c>
@@ -28767,7 +28767,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="464" hidden="1" spans="1:17">
+    <row r="464" spans="1:17">
       <c r="A464" s="4">
         <v>463</v>
       </c>
@@ -28818,7 +28818,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="465" hidden="1" spans="1:17">
+    <row r="465" spans="1:17">
       <c r="A465" s="4">
         <v>464</v>
       </c>
@@ -28869,7 +28869,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="466" hidden="1" spans="1:17">
+    <row r="466" spans="1:17">
       <c r="A466" s="4">
         <v>465</v>
       </c>
@@ -28920,7 +28920,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="467" hidden="1" spans="1:17">
+    <row r="467" spans="1:17">
       <c r="A467" s="4">
         <v>466</v>
       </c>
@@ -28971,7 +28971,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="468" hidden="1" spans="1:17">
+    <row r="468" spans="1:17">
       <c r="A468" s="4">
         <v>467</v>
       </c>
@@ -29022,7 +29022,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="469" hidden="1" spans="1:17">
+    <row r="469" spans="1:17">
       <c r="A469" s="4">
         <v>468</v>
       </c>
@@ -29073,7 +29073,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="470" hidden="1" spans="1:17">
+    <row r="470" spans="1:17">
       <c r="A470" s="4">
         <v>469</v>
       </c>
@@ -29126,7 +29126,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="471" hidden="1" spans="1:19">
+    <row r="471" spans="1:19">
       <c r="A471" s="4">
         <v>470</v>
       </c>
@@ -29183,7 +29183,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="472" hidden="1" spans="1:17">
+    <row r="472" spans="1:17">
       <c r="A472" s="4">
         <v>471</v>
       </c>
@@ -29236,7 +29236,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="473" hidden="1" spans="1:19">
+    <row r="473" spans="1:19">
       <c r="A473" s="4">
         <v>472</v>
       </c>
@@ -29357,7 +29357,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="475" hidden="1" spans="1:17">
+    <row r="475" spans="1:17">
       <c r="A475" s="4">
         <v>474</v>
       </c>
@@ -29408,7 +29408,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="476" hidden="1" spans="1:19">
+    <row r="476" spans="1:19">
       <c r="A476" s="4">
         <v>475</v>
       </c>
@@ -29467,7 +29467,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="477" hidden="1" spans="1:17">
+    <row r="477" spans="1:17">
       <c r="A477" s="4">
         <v>476</v>
       </c>
@@ -29520,7 +29520,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="478" hidden="1" spans="1:19">
+    <row r="478" spans="1:19">
       <c r="A478" s="4">
         <v>477</v>
       </c>
@@ -29579,7 +29579,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="479" hidden="1" spans="1:18">
+    <row r="479" spans="1:18">
       <c r="A479" s="4">
         <v>478</v>
       </c>
@@ -29635,7 +29635,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="480" hidden="1" spans="1:17">
+    <row r="480" spans="1:17">
       <c r="A480" s="4">
         <v>479</v>
       </c>
@@ -29688,7 +29688,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="481" hidden="1" spans="1:17">
+    <row r="481" spans="1:17">
       <c r="A481" s="4">
         <v>480</v>
       </c>
@@ -29741,7 +29741,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="482" hidden="1" spans="1:19">
+    <row r="482" spans="1:19">
       <c r="A482" s="4">
         <v>481</v>
       </c>
@@ -29800,7 +29800,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="483" hidden="1" spans="1:17">
+    <row r="483" spans="1:17">
       <c r="A483" s="4">
         <v>482</v>
       </c>
@@ -29853,7 +29853,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="484" hidden="1" spans="1:18">
+    <row r="484" spans="1:18">
       <c r="A484" s="4">
         <v>483</v>
       </c>
@@ -29909,7 +29909,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="485" hidden="1" spans="1:17">
+    <row r="485" spans="1:17">
       <c r="A485" s="4">
         <v>484</v>
       </c>
@@ -29962,7 +29962,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="486" hidden="1" spans="1:17">
+    <row r="486" spans="1:17">
       <c r="A486" s="4">
         <v>485</v>
       </c>
@@ -30015,7 +30015,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="487" hidden="1" spans="1:17">
+    <row r="487" spans="1:17">
       <c r="A487" s="4">
         <v>486</v>
       </c>
@@ -30068,7 +30068,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="488" hidden="1" spans="1:17">
+    <row r="488" spans="1:17">
       <c r="A488" s="4">
         <v>487</v>
       </c>
@@ -30121,7 +30121,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="489" hidden="1" spans="1:17">
+    <row r="489" spans="1:17">
       <c r="A489" s="4">
         <v>488</v>
       </c>
@@ -30174,7 +30174,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="490" hidden="1" spans="1:18">
+    <row r="490" spans="1:18">
       <c r="A490" s="4">
         <v>489</v>
       </c>
@@ -30230,7 +30230,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="491" hidden="1" spans="1:18">
+    <row r="491" spans="1:18">
       <c r="A491" s="4">
         <v>490</v>
       </c>
@@ -30286,7 +30286,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="492" hidden="1" spans="1:18">
+    <row r="492" spans="1:18">
       <c r="A492" s="4">
         <v>491</v>
       </c>
@@ -30342,7 +30342,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="493" hidden="1" spans="1:18">
+    <row r="493" spans="1:18">
       <c r="A493" s="4">
         <v>492</v>
       </c>
@@ -30398,7 +30398,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="494" hidden="1" spans="1:18">
+    <row r="494" spans="1:18">
       <c r="A494" s="4">
         <v>493</v>
       </c>
@@ -30454,7 +30454,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="495" hidden="1" spans="1:17">
+    <row r="495" spans="1:17">
       <c r="A495" s="4">
         <v>494</v>
       </c>
@@ -30507,7 +30507,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="496" hidden="1" spans="1:17">
+    <row r="496" spans="1:17">
       <c r="A496" s="4">
         <v>495</v>
       </c>
@@ -30560,7 +30560,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="497" hidden="1" spans="1:18">
+    <row r="497" spans="1:18">
       <c r="A497" s="4">
         <v>496</v>
       </c>
@@ -30616,7 +30616,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="498" hidden="1" spans="1:18">
+    <row r="498" spans="1:18">
       <c r="A498" s="4">
         <v>497</v>
       </c>
@@ -30672,7 +30672,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="499" hidden="1" spans="1:17">
+    <row r="499" spans="1:17">
       <c r="A499" s="4">
         <v>498</v>
       </c>
@@ -30725,7 +30725,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="500" hidden="1" spans="1:19">
+    <row r="500" spans="1:19">
       <c r="A500" s="4">
         <v>499</v>
       </c>
@@ -30784,7 +30784,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="501" hidden="1" spans="1:19">
+    <row r="501" spans="1:19">
       <c r="A501" s="4">
         <v>500</v>
       </c>
@@ -30843,7 +30843,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="502" hidden="1" spans="1:17">
+    <row r="502" spans="1:17">
       <c r="A502" s="4">
         <v>501</v>
       </c>
@@ -30896,7 +30896,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="503" hidden="1" spans="1:17">
+    <row r="503" spans="1:17">
       <c r="A503" s="4">
         <v>502</v>
       </c>
@@ -30949,7 +30949,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="504" hidden="1" spans="1:17">
+    <row r="504" spans="1:17">
       <c r="A504" s="4">
         <v>503</v>
       </c>
@@ -31002,7 +31002,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="505" hidden="1" spans="1:19">
+    <row r="505" spans="1:19">
       <c r="A505" s="4">
         <v>504</v>
       </c>
@@ -31061,7 +31061,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="506" hidden="1" spans="1:17">
+    <row r="506" spans="1:17">
       <c r="A506" s="4">
         <v>505</v>
       </c>
@@ -31114,7 +31114,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="507" hidden="1" spans="1:17">
+    <row r="507" spans="1:17">
       <c r="A507" s="4">
         <v>506</v>
       </c>
@@ -31167,7 +31167,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="508" hidden="1" spans="1:17">
+    <row r="508" spans="1:17">
       <c r="A508" s="4">
         <v>507</v>
       </c>
@@ -31220,7 +31220,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="509" hidden="1" spans="1:17">
+    <row r="509" spans="1:17">
       <c r="A509" s="4">
         <v>508</v>
       </c>
@@ -31273,7 +31273,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="510" hidden="1" spans="1:19">
+    <row r="510" spans="1:19">
       <c r="A510" s="4">
         <v>509</v>
       </c>
@@ -31332,7 +31332,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="511" hidden="1" spans="1:17">
+    <row r="511" spans="1:17">
       <c r="A511" s="4">
         <v>510</v>
       </c>
@@ -31385,7 +31385,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="512" hidden="1" spans="1:17">
+    <row r="512" spans="1:17">
       <c r="A512" s="4">
         <v>511</v>
       </c>
@@ -31438,7 +31438,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="513" hidden="1" spans="1:17">
+    <row r="513" spans="1:17">
       <c r="A513" s="4">
         <v>512</v>
       </c>
@@ -31491,7 +31491,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="514" hidden="1" spans="1:17">
+    <row r="514" spans="1:17">
       <c r="A514" s="4">
         <v>513</v>
       </c>
@@ -31544,7 +31544,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="515" hidden="1" spans="1:19">
+    <row r="515" spans="1:19">
       <c r="A515" s="4">
         <v>514</v>
       </c>
@@ -31603,7 +31603,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="516" hidden="1" spans="1:19">
+    <row r="516" spans="1:19">
       <c r="A516" s="4">
         <v>515</v>
       </c>
@@ -31662,7 +31662,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="517" hidden="1" spans="1:19">
+    <row r="517" spans="1:19">
       <c r="A517" s="4">
         <v>516</v>
       </c>
@@ -31721,7 +31721,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="518" hidden="1" spans="1:19">
+    <row r="518" spans="1:19">
       <c r="A518" s="4">
         <v>517</v>
       </c>
@@ -31780,7 +31780,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="519" hidden="1" spans="1:17">
+    <row r="519" spans="1:17">
       <c r="A519" s="4">
         <v>518</v>
       </c>
@@ -31833,7 +31833,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="520" hidden="1" spans="1:17">
+    <row r="520" spans="1:17">
       <c r="A520" s="4">
         <v>519</v>
       </c>
@@ -31886,7 +31886,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="521" hidden="1" spans="1:17">
+    <row r="521" spans="1:17">
       <c r="A521" s="4">
         <v>520</v>
       </c>
@@ -31939,7 +31939,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="522" hidden="1" spans="1:17">
+    <row r="522" spans="1:17">
       <c r="A522" s="4">
         <v>521</v>
       </c>
@@ -31992,7 +31992,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="523" hidden="1" spans="1:17">
+    <row r="523" spans="1:17">
       <c r="A523" s="4">
         <v>522</v>
       </c>
@@ -32045,7 +32045,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="524" hidden="1" spans="1:17">
+    <row r="524" spans="1:17">
       <c r="A524" s="4">
         <v>523</v>
       </c>
@@ -32098,7 +32098,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="525" hidden="1" spans="1:17">
+    <row r="525" spans="1:17">
       <c r="A525" s="4">
         <v>524</v>
       </c>
@@ -32151,7 +32151,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="526" hidden="1" spans="1:17">
+    <row r="526" spans="1:17">
       <c r="A526" s="4">
         <v>525</v>
       </c>
@@ -32204,7 +32204,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="527" hidden="1" spans="1:19">
+    <row r="527" spans="1:19">
       <c r="A527" s="4">
         <v>526</v>
       </c>
@@ -32263,7 +32263,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="528" hidden="1" spans="1:17">
+    <row r="528" spans="1:17">
       <c r="A528" s="4">
         <v>527</v>
       </c>
@@ -32316,7 +32316,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="529" hidden="1" spans="1:17">
+    <row r="529" spans="1:17">
       <c r="A529" s="4">
         <v>528</v>
       </c>
@@ -32369,7 +32369,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="530" hidden="1" spans="1:18">
+    <row r="530" spans="1:18">
       <c r="A530" s="4">
         <v>529</v>
       </c>
@@ -32425,7 +32425,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="531" hidden="1" spans="1:17">
+    <row r="531" spans="1:17">
       <c r="A531" s="4">
         <v>530</v>
       </c>
@@ -32478,7 +32478,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="532" hidden="1" spans="1:19">
+    <row r="532" spans="1:19">
       <c r="A532" s="4">
         <v>531</v>
       </c>
@@ -32537,7 +32537,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="533" hidden="1" spans="1:19">
+    <row r="533" spans="1:19">
       <c r="A533" s="4">
         <v>532</v>
       </c>
@@ -32596,7 +32596,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="534" hidden="1" spans="1:17">
+    <row r="534" spans="1:17">
       <c r="A534" s="4">
         <v>533</v>
       </c>
@@ -32649,7 +32649,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="535" hidden="1" spans="1:18">
+    <row r="535" spans="1:18">
       <c r="A535" s="4">
         <v>534</v>
       </c>
@@ -32705,7 +32705,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="536" hidden="1" spans="1:19">
+    <row r="536" spans="1:19">
       <c r="A536" s="4">
         <v>535</v>
       </c>
@@ -32764,7 +32764,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="537" hidden="1" spans="1:17">
+    <row r="537" spans="1:17">
       <c r="A537" s="4">
         <v>536</v>
       </c>
@@ -32817,7 +32817,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="538" hidden="1" spans="1:18">
+    <row r="538" spans="1:18">
       <c r="A538" s="4">
         <v>537</v>
       </c>
@@ -32873,7 +32873,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="539" hidden="1" spans="1:19">
+    <row r="539" spans="1:19">
       <c r="A539" s="4">
         <v>538</v>
       </c>
@@ -32932,7 +32932,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="540" hidden="1" spans="1:19">
+    <row r="540" spans="1:19">
       <c r="A540" s="4">
         <v>539</v>
       </c>
@@ -32991,7 +32991,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="541" hidden="1" spans="1:17">
+    <row r="541" spans="1:17">
       <c r="A541" s="4">
         <v>540</v>
       </c>
@@ -33044,7 +33044,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="542" hidden="1" spans="1:17">
+    <row r="542" spans="1:17">
       <c r="A542" s="4">
         <v>541</v>
       </c>
@@ -33095,7 +33095,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="543" hidden="1" spans="1:19">
+    <row r="543" spans="1:19">
       <c r="A543" s="4">
         <v>542</v>
       </c>
@@ -33154,7 +33154,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="544" hidden="1" spans="1:17">
+    <row r="544" spans="1:17">
       <c r="A544" s="4">
         <v>543</v>
       </c>
@@ -33207,7 +33207,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="545" hidden="1" spans="1:17">
+    <row r="545" spans="1:17">
       <c r="A545" s="4">
         <v>544</v>
       </c>
@@ -33260,7 +33260,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="546" hidden="1" spans="1:18">
+    <row r="546" spans="1:18">
       <c r="A546" s="4">
         <v>545</v>
       </c>
@@ -33316,7 +33316,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="547" hidden="1" spans="1:19">
+    <row r="547" spans="1:19">
       <c r="A547" s="4">
         <v>546</v>
       </c>
@@ -33375,7 +33375,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="548" hidden="1" spans="1:19">
+    <row r="548" spans="1:19">
       <c r="A548" s="4">
         <v>547</v>
       </c>
@@ -33434,7 +33434,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="549" hidden="1" spans="1:19">
+    <row r="549" spans="1:19">
       <c r="A549" s="4">
         <v>548</v>
       </c>
@@ -33493,7 +33493,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="550" hidden="1" spans="1:19">
+    <row r="550" spans="1:19">
       <c r="A550" s="4">
         <v>549</v>
       </c>
@@ -33552,7 +33552,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="551" hidden="1" spans="1:18">
+    <row r="551" spans="1:18">
       <c r="A551" s="4">
         <v>550</v>
       </c>
@@ -33608,7 +33608,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="552" hidden="1" spans="1:19">
+    <row r="552" spans="1:19">
       <c r="A552" s="4">
         <v>551</v>
       </c>
@@ -33667,7 +33667,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="553" hidden="1" spans="1:19">
+    <row r="553" spans="1:19">
       <c r="A553" s="4">
         <v>552</v>
       </c>
@@ -33726,7 +33726,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="554" hidden="1" spans="1:19">
+    <row r="554" spans="1:19">
       <c r="A554" s="4">
         <v>553</v>
       </c>
@@ -33785,7 +33785,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="555" hidden="1" spans="1:19">
+    <row r="555" spans="1:19">
       <c r="A555" s="4">
         <v>554</v>
       </c>
@@ -33844,7 +33844,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="556" hidden="1" spans="1:19">
+    <row r="556" spans="1:19">
       <c r="A556" s="4">
         <v>555</v>
       </c>
@@ -33903,7 +33903,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="557" hidden="1" spans="1:18">
+    <row r="557" spans="1:18">
       <c r="A557" s="4">
         <v>556</v>
       </c>
@@ -33959,7 +33959,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="558" hidden="1" spans="1:18">
+    <row r="558" spans="1:18">
       <c r="A558" s="4">
         <v>557</v>
       </c>
@@ -34015,7 +34015,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="559" hidden="1" spans="1:19">
+    <row r="559" spans="1:19">
       <c r="A559" s="4">
         <v>558</v>
       </c>
@@ -34074,7 +34074,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="560" hidden="1" spans="1:19">
+    <row r="560" spans="1:19">
       <c r="A560" s="4">
         <v>559</v>
       </c>
@@ -34133,7 +34133,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="561" hidden="1" spans="1:17">
+    <row r="561" spans="1:17">
       <c r="A561" s="4">
         <v>560</v>
       </c>
@@ -34186,7 +34186,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="562" hidden="1" spans="1:19">
+    <row r="562" spans="1:19">
       <c r="A562" s="4">
         <v>561</v>
       </c>
@@ -34245,7 +34245,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="563" hidden="1" spans="1:19">
+    <row r="563" spans="1:19">
       <c r="A563" s="4">
         <v>562</v>
       </c>
@@ -34304,7 +34304,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="564" hidden="1" spans="1:19">
+    <row r="564" spans="1:19">
       <c r="A564" s="4">
         <v>563</v>
       </c>
@@ -34363,7 +34363,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="565" hidden="1" spans="1:18">
+    <row r="565" spans="1:18">
       <c r="A565" s="4">
         <v>564</v>
       </c>
@@ -34419,7 +34419,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="566" hidden="1" spans="1:19">
+    <row r="566" spans="1:19">
       <c r="A566" s="4">
         <v>565</v>
       </c>
@@ -34478,7 +34478,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="567" hidden="1" spans="1:19">
+    <row r="567" spans="1:19">
       <c r="A567" s="4">
         <v>566</v>
       </c>
@@ -34537,7 +34537,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="568" hidden="1" spans="1:17">
+    <row r="568" spans="1:17">
       <c r="A568" s="4">
         <v>567</v>
       </c>
@@ -34590,7 +34590,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="569" hidden="1" spans="1:19">
+    <row r="569" spans="1:19">
       <c r="A569" s="4">
         <v>568</v>
       </c>
@@ -34649,7 +34649,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="570" hidden="1" spans="1:18">
+    <row r="570" spans="1:18">
       <c r="A570" s="4">
         <v>569</v>
       </c>
@@ -34705,7 +34705,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="571" hidden="1" spans="1:18">
+    <row r="571" spans="1:18">
       <c r="A571" s="4">
         <v>570</v>
       </c>
@@ -34761,7 +34761,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="572" hidden="1" spans="1:19">
+    <row r="572" spans="1:19">
       <c r="A572" s="4">
         <v>571</v>
       </c>
@@ -34820,7 +34820,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="573" hidden="1" spans="1:19">
+    <row r="573" spans="1:19">
       <c r="A573" s="4">
         <v>572</v>
       </c>
@@ -34879,7 +34879,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="574" hidden="1" spans="1:19">
+    <row r="574" spans="1:19">
       <c r="A574" s="4">
         <v>573</v>
       </c>
@@ -34938,7 +34938,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="575" hidden="1" spans="1:19">
+    <row r="575" spans="1:19">
       <c r="A575" s="4">
         <v>574</v>
       </c>
@@ -34997,7 +34997,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="576" hidden="1" spans="1:19">
+    <row r="576" spans="1:19">
       <c r="A576" s="4">
         <v>575</v>
       </c>
@@ -35056,7 +35056,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="577" hidden="1" spans="1:19">
+    <row r="577" spans="1:19">
       <c r="A577" s="4">
         <v>576</v>
       </c>
@@ -35115,7 +35115,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="578" hidden="1" spans="1:17">
+    <row r="578" spans="1:17">
       <c r="A578" s="4">
         <v>577</v>
       </c>
@@ -35168,7 +35168,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="579" hidden="1" spans="1:17">
+    <row r="579" spans="1:17">
       <c r="A579" s="4">
         <v>578</v>
       </c>
@@ -35221,7 +35221,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="580" hidden="1" spans="1:18">
+    <row r="580" spans="1:18">
       <c r="A580" s="4">
         <v>579</v>
       </c>
@@ -35277,7 +35277,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="581" hidden="1" spans="1:17">
+    <row r="581" spans="1:17">
       <c r="A581" s="4">
         <v>580</v>
       </c>
@@ -35330,7 +35330,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="582" hidden="1" spans="1:17">
+    <row r="582" spans="1:17">
       <c r="A582" s="4">
         <v>581</v>
       </c>
@@ -35381,7 +35381,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="583" hidden="1" spans="1:20">
+    <row r="583" spans="1:20">
       <c r="A583" s="4">
         <v>582</v>
       </c>
@@ -35441,7 +35441,7 @@
       </c>
       <c r="T583" s="17"/>
     </row>
-    <row r="584" hidden="1" spans="1:20">
+    <row r="584" spans="1:20">
       <c r="A584" s="4">
         <v>583</v>
       </c>
@@ -35501,7 +35501,7 @@
       </c>
       <c r="T584" s="17"/>
     </row>
-    <row r="585" hidden="1" spans="1:20">
+    <row r="585" spans="1:20">
       <c r="A585" s="4">
         <v>584</v>
       </c>
@@ -35561,7 +35561,7 @@
       </c>
       <c r="T585" s="17"/>
     </row>
-    <row r="586" hidden="1" spans="1:19">
+    <row r="586" spans="1:19">
       <c r="A586" s="4">
         <v>585</v>
       </c>
@@ -35620,7 +35620,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="587" hidden="1" spans="1:17">
+    <row r="587" spans="1:17">
       <c r="A587" s="4">
         <v>586</v>
       </c>
@@ -35671,7 +35671,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="588" hidden="1" spans="1:20">
+    <row r="588" spans="1:20">
       <c r="A588" s="4">
         <v>587</v>
       </c>
@@ -35731,7 +35731,7 @@
       </c>
       <c r="T588" s="17"/>
     </row>
-    <row r="589" hidden="1" spans="1:17">
+    <row r="589" spans="1:17">
       <c r="A589" s="4">
         <v>588</v>
       </c>
@@ -35782,7 +35782,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="590" hidden="1" spans="1:20">
+    <row r="590" spans="1:20">
       <c r="A590" s="4">
         <v>589</v>
       </c>
@@ -35842,7 +35842,7 @@
       </c>
       <c r="T590" s="17"/>
     </row>
-    <row r="591" hidden="1" spans="1:20">
+    <row r="591" spans="1:20">
       <c r="A591" s="4">
         <v>590</v>
       </c>
@@ -35902,7 +35902,7 @@
       </c>
       <c r="T591" s="17"/>
     </row>
-    <row r="592" hidden="1" spans="1:19">
+    <row r="592" spans="1:19">
       <c r="A592" s="4">
         <v>591</v>
       </c>
@@ -35961,7 +35961,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="593" hidden="1" spans="1:20">
+    <row r="593" spans="1:20">
       <c r="A593" s="4">
         <v>592</v>
       </c>
@@ -36021,7 +36021,7 @@
       </c>
       <c r="T593" s="17"/>
     </row>
-    <row r="594" hidden="1" spans="1:17">
+    <row r="594" spans="1:17">
       <c r="A594" s="4">
         <v>593</v>
       </c>
@@ -36072,7 +36072,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="595" hidden="1" spans="1:17">
+    <row r="595" spans="1:17">
       <c r="A595" s="4">
         <v>594</v>
       </c>
@@ -36123,7 +36123,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="596" hidden="1" spans="1:17">
+    <row r="596" spans="1:17">
       <c r="A596" s="4">
         <v>595</v>
       </c>
@@ -36174,7 +36174,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="597" hidden="1" spans="1:17">
+    <row r="597" spans="1:17">
       <c r="A597" s="4">
         <v>596</v>
       </c>
@@ -36227,7 +36227,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="598" hidden="1" spans="1:19">
+    <row r="598" spans="1:19">
       <c r="A598" s="4">
         <v>597</v>
       </c>
@@ -36286,7 +36286,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="599" hidden="1" spans="1:19">
+    <row r="599" spans="1:19">
       <c r="A599" s="4">
         <v>598</v>
       </c>
@@ -36345,7 +36345,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="600" hidden="1" spans="1:19">
+    <row r="600" spans="1:19">
       <c r="A600" s="4">
         <v>599</v>
       </c>
@@ -36404,7 +36404,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="601" hidden="1" spans="1:19">
+    <row r="601" spans="1:19">
       <c r="A601" s="4">
         <v>600</v>
       </c>
@@ -36463,7 +36463,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="602" hidden="1" spans="1:17">
+    <row r="602" spans="1:17">
       <c r="A602" s="4">
         <v>601</v>
       </c>
@@ -36516,7 +36516,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="603" hidden="1" spans="1:17">
+    <row r="603" spans="1:17">
       <c r="A603" s="4">
         <v>602</v>
       </c>
@@ -36569,7 +36569,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="604" hidden="1" spans="1:19">
+    <row r="604" spans="1:19">
       <c r="A604" s="4">
         <v>603</v>
       </c>
@@ -36628,7 +36628,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="605" hidden="1" spans="1:19">
+    <row r="605" spans="1:19">
       <c r="A605" s="4">
         <v>604</v>
       </c>
@@ -36687,7 +36687,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="606" hidden="1" spans="1:19">
+    <row r="606" spans="1:19">
       <c r="A606" s="4">
         <v>605</v>
       </c>
@@ -36746,7 +36746,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="607" hidden="1" spans="1:19">
+    <row r="607" spans="1:19">
       <c r="A607" s="4">
         <v>606</v>
       </c>
@@ -36805,7 +36805,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="608" hidden="1" spans="1:17">
+    <row r="608" spans="1:17">
       <c r="A608" s="4">
         <v>607</v>
       </c>
@@ -36858,7 +36858,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="609" hidden="1" spans="1:19">
+    <row r="609" spans="1:19">
       <c r="A609" s="4">
         <v>608</v>
       </c>
@@ -36917,7 +36917,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="610" hidden="1" spans="1:19">
+    <row r="610" spans="1:19">
       <c r="A610" s="4">
         <v>609</v>
       </c>
@@ -36976,7 +36976,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="611" hidden="1" spans="1:19">
+    <row r="611" spans="1:19">
       <c r="A611" s="4">
         <v>610</v>
       </c>
@@ -37035,7 +37035,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="612" hidden="1" spans="1:19">
+    <row r="612" spans="1:19">
       <c r="A612" s="4">
         <v>611</v>
       </c>
@@ -37094,7 +37094,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="613" hidden="1" spans="1:19">
+    <row r="613" spans="1:19">
       <c r="A613" s="4">
         <v>612</v>
       </c>
@@ -37153,7 +37153,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="614" hidden="1" spans="1:18">
+    <row r="614" spans="1:18">
       <c r="A614" s="4">
         <v>613</v>
       </c>
@@ -37209,7 +37209,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="615" hidden="1" spans="1:18">
+    <row r="615" spans="1:18">
       <c r="A615" s="4">
         <v>614</v>
       </c>
@@ -37265,7 +37265,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="616" hidden="1" spans="1:18">
+    <row r="616" spans="1:18">
       <c r="A616" s="4">
         <v>615</v>
       </c>
@@ -37321,7 +37321,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="617" hidden="1" spans="1:18">
+    <row r="617" spans="1:18">
       <c r="A617" s="4">
         <v>616</v>
       </c>
@@ -37377,7 +37377,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="618" hidden="1" spans="1:18">
+    <row r="618" spans="1:18">
       <c r="A618" s="4">
         <v>617</v>
       </c>
@@ -37433,7 +37433,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="619" hidden="1" spans="1:18">
+    <row r="619" spans="1:18">
       <c r="A619" s="4">
         <v>618</v>
       </c>
@@ -37489,7 +37489,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="620" hidden="1" spans="1:18">
+    <row r="620" spans="1:18">
       <c r="A620" s="4">
         <v>619</v>
       </c>
@@ -37545,7 +37545,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="621" hidden="1" spans="1:18">
+    <row r="621" spans="1:18">
       <c r="A621" s="4">
         <v>620</v>
       </c>
@@ -37601,7 +37601,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="622" hidden="1" spans="1:18">
+    <row r="622" spans="1:18">
       <c r="A622" s="4">
         <v>621</v>
       </c>
@@ -37657,7 +37657,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="623" hidden="1" spans="1:18">
+    <row r="623" spans="1:18">
       <c r="A623" s="4">
         <v>622</v>
       </c>
@@ -37713,7 +37713,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="624" hidden="1" spans="1:19">
+    <row r="624" spans="1:19">
       <c r="A624" s="4">
         <v>623</v>
       </c>
@@ -37772,7 +37772,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="625" hidden="1" spans="1:17">
+    <row r="625" spans="1:17">
       <c r="A625" s="4">
         <v>624</v>
       </c>
@@ -37825,7 +37825,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="626" hidden="1" spans="1:17">
+    <row r="626" spans="1:17">
       <c r="A626" s="4">
         <v>625</v>
       </c>
@@ -37878,7 +37878,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="627" hidden="1" spans="1:17">
+    <row r="627" spans="1:17">
       <c r="A627" s="4">
         <v>626</v>
       </c>
@@ -37931,7 +37931,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="628" hidden="1" spans="1:19">
+    <row r="628" spans="1:19">
       <c r="A628" s="4">
         <v>627</v>
       </c>
@@ -37990,7 +37990,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="629" hidden="1" spans="1:19">
+    <row r="629" spans="1:19">
       <c r="A629" s="4">
         <v>628</v>
       </c>
@@ -38049,7 +38049,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="630" hidden="1" spans="1:19">
+    <row r="630" spans="1:19">
       <c r="A630" s="4">
         <v>629</v>
       </c>
@@ -38108,7 +38108,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="631" hidden="1" spans="1:17">
+    <row r="631" spans="1:17">
       <c r="A631" s="4">
         <v>630</v>
       </c>
@@ -38161,7 +38161,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="632" hidden="1" spans="1:19">
+    <row r="632" spans="1:19">
       <c r="A632" s="4">
         <v>631</v>
       </c>
@@ -38220,7 +38220,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="633" hidden="1" spans="1:18">
+    <row r="633" spans="1:18">
       <c r="A633" s="4">
         <v>632</v>
       </c>
@@ -38276,7 +38276,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="634" hidden="1" spans="1:17">
+    <row r="634" spans="1:17">
       <c r="A634" s="4">
         <v>633</v>
       </c>
@@ -38329,7 +38329,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="635" hidden="1" spans="1:19">
+    <row r="635" spans="1:19">
       <c r="A635" s="4">
         <v>634</v>
       </c>
@@ -38388,7 +38388,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="636" hidden="1" spans="1:19">
+    <row r="636" spans="1:19">
       <c r="A636" s="4">
         <v>635</v>
       </c>
@@ -38447,7 +38447,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="637" hidden="1" spans="1:19">
+    <row r="637" spans="1:19">
       <c r="A637" s="4">
         <v>636</v>
       </c>
@@ -38506,7 +38506,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="638" hidden="1" spans="1:19">
+    <row r="638" spans="1:19">
       <c r="A638" s="4">
         <v>637</v>
       </c>
@@ -38565,7 +38565,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="639" hidden="1" spans="1:19">
+    <row r="639" spans="1:19">
       <c r="A639" s="4">
         <v>638</v>
       </c>
@@ -38624,7 +38624,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="640" hidden="1" spans="1:19">
+    <row r="640" spans="1:19">
       <c r="A640" s="4">
         <v>639</v>
       </c>
@@ -38683,7 +38683,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="641" hidden="1" spans="1:19">
+    <row r="641" spans="1:19">
       <c r="A641" s="4">
         <v>640</v>
       </c>
@@ -38742,7 +38742,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="642" hidden="1" spans="1:19">
+    <row r="642" spans="1:19">
       <c r="A642" s="4">
         <v>641</v>
       </c>
@@ -38863,7 +38863,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="644" hidden="1" spans="1:17">
+    <row r="644" spans="1:17">
       <c r="A644" s="4">
         <v>643</v>
       </c>
@@ -38916,7 +38916,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="645" hidden="1" spans="1:17">
+    <row r="645" spans="1:17">
       <c r="A645" s="4">
         <v>644</v>
       </c>
@@ -38969,7 +38969,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="646" hidden="1" spans="1:19">
+    <row r="646" spans="1:19">
       <c r="A646" s="4">
         <v>645</v>
       </c>
@@ -39028,7 +39028,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="647" hidden="1" spans="1:19">
+    <row r="647" spans="1:19">
       <c r="A647" s="4">
         <v>646</v>
       </c>
@@ -39087,7 +39087,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="648" hidden="1" spans="1:17">
+    <row r="648" spans="1:17">
       <c r="A648" s="4">
         <v>647</v>
       </c>
@@ -39140,7 +39140,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="649" hidden="1" spans="1:17">
+    <row r="649" spans="1:17">
       <c r="A649" s="4">
         <v>648</v>
       </c>
@@ -39193,7 +39193,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="650" hidden="1" spans="1:17">
+    <row r="650" spans="1:17">
       <c r="A650" s="4">
         <v>649</v>
       </c>
@@ -49199,16 +49199,6 @@
     </row>
   </sheetData>
   <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:T650" etc:filterBottomFollowUsedRange="0">
-    <filterColumn colId="3">
-      <filters>
-        <filter val="APP"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="19">
-      <filters>
-        <filter val="traffic analysis"/>
-      </filters>
-    </filterColumn>
     <extLst/>
   </autoFilter>
   <sortState ref="A2:M650">

--- a/ICV_study.xlsx
+++ b/ICV_study.xlsx
@@ -3133,8 +3133,8 @@
   <sheetPr/>
   <dimension ref="A1:T3967"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="40" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="40" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
